--- a/invoice/plain_invoices/PLAIN_INVOICES.xlsx
+++ b/invoice/plain_invoices/PLAIN_INVOICES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrique Aguiar\Desktop\Canoe_Git\invoice\plain_invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66681E68-C40B-44CB-A127-F65BC4B80E66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E19F89-86E3-40AF-9C09-F2D6015BD496}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A&amp;E" sheetId="2" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="255">
   <si>
     <t>Invoice Date:</t>
   </si>
@@ -327,9 +327,6 @@
     <t>Lifetime</t>
   </si>
   <si>
-    <t>History</t>
-  </si>
-  <si>
     <t xml:space="preserve">235 East 45th </t>
   </si>
   <si>
@@ -337,9 +334,6 @@
   </si>
   <si>
     <t>A&amp;E Networks</t>
-  </si>
-  <si>
-    <t>LMN</t>
   </si>
   <si>
     <t>FYI</t>
@@ -1012,6 +1006,15 @@
   <si>
     <t>DIY Network</t>
   </si>
+  <si>
+    <t>History Channel</t>
+  </si>
+  <si>
+    <t>Lifetime Movie Network (LMN)</t>
+  </si>
+  <si>
+    <t>A and E</t>
+  </si>
 </sst>
 </file>
 
@@ -1035,7 +1038,7 @@
     <numFmt numFmtId="174" formatCode="0.000000"/>
     <numFmt numFmtId="175" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="76" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1555,6 +1558,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="37">
@@ -4842,7 +4850,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5524,49 +5532,6 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -5583,42 +5548,8 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5632,6 +5563,87 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="2812" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2813">
     <cellStyle name="20% - Accent1" xfId="839" builtinId="30" customBuiltin="1"/>
@@ -8732,14 +8744,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -9743,8 +9755,8 @@
   </sheetPr>
   <dimension ref="A1:Q160"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9752,7 +9764,7 @@
     <col min="1" max="1" width="1.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="80.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="31" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="20" style="7" customWidth="1"/>
@@ -9815,11 +9827,11 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -9830,41 +9842,41 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="6"/>
-      <c r="H5" s="284" t="s">
+      <c r="H5" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="285"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="H6" s="271" t="s">
+      <c r="H6" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="H7" s="298" t="s">
+      <c r="H7" s="273" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="298"/>
-      <c r="J7" s="298"/>
+      <c r="I7" s="273"/>
+      <c r="J7" s="273"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -9875,11 +9887,11 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="H8" s="297" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="297"/>
-      <c r="J8" s="297"/>
+      <c r="H8" s="272" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="272"/>
+      <c r="J8" s="272"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -9890,11 +9902,11 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="H9" s="297" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="297"/>
-      <c r="J9" s="297"/>
+      <c r="H9" s="272" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="272"/>
+      <c r="J9" s="272"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -9912,11 +9924,11 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="H11" s="296" t="s">
+      <c r="H11" s="271" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="296"/>
-      <c r="J11" s="296"/>
+      <c r="I11" s="271"/>
+      <c r="J11" s="271"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -9924,35 +9936,35 @@
         <v>20</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="H12" s="295" t="s">
+      <c r="H12" s="270" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="295"/>
-      <c r="J12" s="295"/>
+      <c r="I12" s="270"/>
+      <c r="J12" s="270"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="C13" s="13"/>
       <c r="D13" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="H13" s="294" t="s">
+      <c r="H13" s="284" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="294"/>
-      <c r="J13" s="294"/>
+      <c r="I13" s="284"/>
+      <c r="J13" s="284"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="C14" s="13"/>
       <c r="D14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -9967,15 +9979,15 @@
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="H15" s="289" t="s">
+      <c r="H15" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="290"/>
-      <c r="J15" s="291"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="283"/>
       <c r="N15" s="75"/>
       <c r="P15" s="63"/>
     </row>
@@ -9983,17 +9995,17 @@
       <c r="A16" s="5"/>
       <c r="C16" s="8"/>
       <c r="D16" s="76" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="H16" s="281" t="s">
+      <c r="H16" s="267" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="282" t="s">
+      <c r="J16" s="268" t="s">
         <v>33</v>
       </c>
       <c r="M16" s="61"/>
@@ -10085,13 +10097,13 @@
         <v>19</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="41"/>
       <c r="H21" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I21" s="43">
         <v>0.71</v>
@@ -10110,7 +10122,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="41"/>
       <c r="H22" s="42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="43">
         <v>0.61</v>
@@ -10128,7 +10140,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="41"/>
       <c r="H23" s="42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="43">
         <v>0.57999999999999996</v>
@@ -10146,7 +10158,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="41"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24" s="43">
         <v>0.55000000000000004</v>
@@ -10163,7 +10175,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="41"/>
       <c r="H25" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I25" s="43">
         <v>0.5</v>
@@ -10260,11 +10272,11 @@
         <v>36</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>38</v>
+        <v>254</v>
       </c>
       <c r="H31" s="61"/>
       <c r="I31" s="39"/>
-      <c r="J31" s="52"/>
+      <c r="J31" s="300"/>
       <c r="K31" s="61"/>
       <c r="M31" s="61"/>
     </row>
@@ -10279,7 +10291,7 @@
       </c>
       <c r="H32" s="61"/>
       <c r="I32" s="39"/>
-      <c r="J32" s="52"/>
+      <c r="J32" s="300"/>
       <c r="K32" s="61"/>
       <c r="M32" s="61"/>
     </row>
@@ -10288,12 +10300,12 @@
       <c r="C33" s="37"/>
       <c r="E33" s="38"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="29" t="s">
-        <v>40</v>
+      <c r="G33" s="299" t="s">
+        <v>252</v>
       </c>
       <c r="H33" s="61"/>
       <c r="I33" s="39"/>
-      <c r="J33" s="52"/>
+      <c r="J33" s="300"/>
       <c r="K33" s="61"/>
       <c r="M33" s="61"/>
     </row>
@@ -10302,12 +10314,12 @@
       <c r="C34" s="37"/>
       <c r="E34" s="38"/>
       <c r="F34" s="61"/>
-      <c r="G34" s="29" t="s">
-        <v>44</v>
+      <c r="G34" s="299" t="s">
+        <v>253</v>
       </c>
       <c r="H34" s="61"/>
       <c r="I34" s="39"/>
-      <c r="J34" s="52"/>
+      <c r="J34" s="300"/>
       <c r="K34" s="61"/>
       <c r="M34" s="61"/>
     </row>
@@ -10317,11 +10329,11 @@
       <c r="E35" s="38"/>
       <c r="F35" s="61"/>
       <c r="G35" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H35" s="61"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="52"/>
+      <c r="J35" s="300"/>
       <c r="K35" s="61"/>
       <c r="M35" s="61"/>
     </row>
@@ -10331,11 +10343,11 @@
       <c r="E36" s="38"/>
       <c r="F36" s="61"/>
       <c r="G36" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
-      <c r="J36" s="52"/>
+      <c r="J36" s="300"/>
       <c r="K36" s="61"/>
       <c r="M36" s="61"/>
     </row>
@@ -10368,7 +10380,7 @@
       <c r="C39" s="37"/>
       <c r="E39" s="38"/>
       <c r="F39" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G39" s="61"/>
       <c r="H39" s="61"/>
@@ -10443,8 +10455,8 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="58" t="s">
-        <v>38</v>
+      <c r="I45" s="29" t="s">
+        <v>254</v>
       </c>
       <c r="J45" s="57"/>
       <c r="K45" s="61"/>
@@ -10460,8 +10472,8 @@
       <c r="M46" s="61"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I47" s="29" t="s">
-        <v>40</v>
+      <c r="I47" s="299" t="s">
+        <v>252</v>
       </c>
       <c r="J47" s="62"/>
       <c r="K47" s="61"/>
@@ -10469,8 +10481,8 @@
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="24"/>
-      <c r="I48" s="58" t="s">
-        <v>44</v>
+      <c r="I48" s="299" t="s">
+        <v>253</v>
       </c>
       <c r="J48" s="62"/>
       <c r="K48" s="61"/>
@@ -10478,16 +10490,16 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="24"/>
-      <c r="I49" s="58" t="s">
-        <v>45</v>
+      <c r="I49" s="29" t="s">
+        <v>43</v>
       </c>
       <c r="J49" s="62"/>
       <c r="K49" s="61"/>
       <c r="M49" s="61"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I50" s="58" t="s">
-        <v>49</v>
+      <c r="I50" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="J50" s="62"/>
       <c r="K50" s="61"/>
@@ -10503,7 +10515,7 @@
       <c r="B52" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="276"/>
+      <c r="C52" s="262"/>
       <c r="D52" s="71"/>
       <c r="E52" s="28" t="s">
         <v>0</v>
@@ -10534,11 +10546,11 @@
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D54" s="72"/>
       <c r="E54" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="27" t="str">
         <f>D12</f>
@@ -10553,9 +10565,9 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="277"/>
+        <v>52</v>
+      </c>
+      <c r="C55" s="263"/>
       <c r="D55" s="73"/>
       <c r="E55" s="29"/>
       <c r="F55" s="27"/>
@@ -10962,16 +10974,16 @@
     <sortCondition ref="D25:D27"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H13:J13"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H13:J13"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
@@ -11009,7 +11021,7 @@
     <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" style="7" customWidth="1"/>
@@ -11064,22 +11076,22 @@
       <c r="D4" s="124"/>
       <c r="E4" s="124"/>
       <c r="F4" s="124"/>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="128"/>
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
       <c r="F5" s="124"/>
-      <c r="H5" s="284" t="s">
+      <c r="H5" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="285"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="127" t="s">
@@ -11089,39 +11101,39 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="124"/>
-      <c r="H6" s="271" t="s">
+      <c r="H6" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
       <c r="F7" s="124"/>
-      <c r="H7" s="266" t="s">
+      <c r="H7" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="288"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
-      <c r="H8" s="265" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="H8" s="287" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -11131,11 +11143,11 @@
       <c r="D9" s="124"/>
       <c r="E9" s="124"/>
       <c r="F9" s="124"/>
-      <c r="H9" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
+      <c r="H9" s="287" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="125" t="s">
@@ -11151,11 +11163,11 @@
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
-      <c r="H11" s="267" t="s">
+      <c r="H11" s="286" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="267"/>
-      <c r="J11" s="267"/>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="115" t="s">
@@ -11163,28 +11175,28 @@
       </c>
       <c r="C12" s="121"/>
       <c r="D12" s="162" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="121"/>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="121"/>
       <c r="D13" s="119" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="121"/>
@@ -11201,27 +11213,27 @@
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="118" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="106"/>
-      <c r="H15" s="289" t="s">
+      <c r="H15" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="290"/>
-      <c r="J15" s="291"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="283"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="162"/>
       <c r="E16" s="106"/>
       <c r="G16" s="106"/>
-      <c r="H16" s="281" t="s">
+      <c r="H16" s="267" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="282" t="s">
+      <c r="J16" s="268" t="s">
         <v>33</v>
       </c>
     </row>
@@ -11276,7 +11288,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -11293,14 +11305,14 @@
       <c r="B21" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="264" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="264"/>
+      <c r="D21" s="290" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="290"/>
       <c r="F21" s="106"/>
       <c r="G21" s="105"/>
       <c r="H21" s="104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="103">
         <v>0.84</v>
@@ -11316,7 +11328,7 @@
       <c r="F22" s="106"/>
       <c r="G22" s="105"/>
       <c r="H22" s="104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="103">
         <v>0.79</v>
@@ -11330,7 +11342,7 @@
       <c r="F23" s="106"/>
       <c r="G23" s="105"/>
       <c r="H23" s="104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="103">
         <v>0.75</v>
@@ -11344,7 +11356,7 @@
       <c r="F24" s="106"/>
       <c r="G24" s="105"/>
       <c r="H24" s="104" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I24" s="103">
         <v>0.73</v>
@@ -11429,7 +11441,7 @@
         <v>36</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H30" s="50"/>
       <c r="I30" s="99"/>
@@ -11441,7 +11453,7 @@
       <c r="E31" s="131"/>
       <c r="F31" s="100"/>
       <c r="G31" s="65" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H31" s="50"/>
       <c r="I31" s="99"/>
@@ -11471,7 +11483,7 @@
       <c r="C34" s="92"/>
       <c r="E34" s="131"/>
       <c r="F34" s="100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H34" s="61"/>
       <c r="I34" s="94"/>
@@ -11522,15 +11534,15 @@
       <c r="J38" s="175"/>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="293"/>
-      <c r="C39" s="293"/>
-      <c r="D39" s="293"/>
-      <c r="E39" s="293"/>
-      <c r="F39" s="293"/>
-      <c r="G39" s="293"/>
-      <c r="H39" s="293"/>
-      <c r="I39" s="293"/>
-      <c r="J39" s="293"/>
+      <c r="B39" s="269"/>
+      <c r="C39" s="269"/>
+      <c r="D39" s="269"/>
+      <c r="E39" s="269"/>
+      <c r="F39" s="269"/>
+      <c r="G39" s="269"/>
+      <c r="H39" s="269"/>
+      <c r="I39" s="269"/>
+      <c r="J39" s="269"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="24" t="s">
@@ -11543,7 +11555,7 @@
       <c r="B42" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="276"/>
+      <c r="C42" s="262"/>
       <c r="D42" s="71"/>
       <c r="E42" s="28" t="s">
         <v>0</v>
@@ -11568,14 +11580,14 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D44" s="72"/>
       <c r="E44" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I44" s="25" t="s">
         <v>27</v>
@@ -11584,9 +11596,9 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="277"/>
+        <v>52</v>
+      </c>
+      <c r="C45" s="263"/>
       <c r="D45" s="73"/>
       <c r="E45" s="151"/>
       <c r="F45" s="240"/>
@@ -11605,17 +11617,17 @@
   </sheetData>
   <autoFilter ref="B26:J27" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{423E9719-A0E5-4632-BFC5-DBDE87BAE0E4}"/>
@@ -11652,7 +11664,7 @@
     <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="68" style="7" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="7" customWidth="1"/>
     <col min="6" max="7" width="22.85546875" style="7" customWidth="1"/>
     <col min="8" max="8" width="24" style="7" customWidth="1"/>
@@ -11706,22 +11718,22 @@
       <c r="D4" s="124"/>
       <c r="E4" s="124"/>
       <c r="F4" s="124"/>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="128"/>
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
       <c r="F5" s="124"/>
-      <c r="H5" s="284" t="s">
+      <c r="H5" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="285"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="127" t="s">
@@ -11731,39 +11743,39 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="124"/>
-      <c r="H6" s="271" t="s">
+      <c r="H6" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
       <c r="F7" s="124"/>
-      <c r="H7" s="266" t="s">
+      <c r="H7" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="288"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
-      <c r="H8" s="265" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="H8" s="287" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -11773,11 +11785,11 @@
       <c r="D9" s="124"/>
       <c r="E9" s="124"/>
       <c r="F9" s="124"/>
-      <c r="H9" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
+      <c r="H9" s="287" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="125" t="s">
@@ -11793,11 +11805,11 @@
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
-      <c r="H11" s="267" t="s">
+      <c r="H11" s="286" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="267"/>
-      <c r="J11" s="267"/>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="115" t="s">
@@ -11805,28 +11817,28 @@
       </c>
       <c r="C12" s="121"/>
       <c r="D12" s="162" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="121"/>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="121"/>
       <c r="D13" s="119" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="121"/>
@@ -11843,27 +11855,27 @@
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="118" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="106"/>
-      <c r="H15" s="289" t="s">
+      <c r="H15" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="290"/>
-      <c r="J15" s="291"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="283"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="162"/>
       <c r="E16" s="106"/>
       <c r="G16" s="106"/>
-      <c r="H16" s="281" t="s">
+      <c r="H16" s="267" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="282" t="s">
+      <c r="J16" s="268" t="s">
         <v>33</v>
       </c>
     </row>
@@ -11918,7 +11930,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -11935,14 +11947,14 @@
       <c r="B21" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="264" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="264"/>
+      <c r="D21" s="290" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="290"/>
       <c r="F21" s="106"/>
       <c r="G21" s="105"/>
       <c r="H21" s="104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="103">
         <v>0.84</v>
@@ -11958,7 +11970,7 @@
       <c r="F22" s="106"/>
       <c r="G22" s="105"/>
       <c r="H22" s="104" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I22" s="103">
         <v>0.79</v>
@@ -11972,7 +11984,7 @@
       <c r="F23" s="106"/>
       <c r="G23" s="105"/>
       <c r="H23" s="104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="103">
         <v>0.75</v>
@@ -11986,7 +11998,7 @@
       <c r="F24" s="106"/>
       <c r="G24" s="105"/>
       <c r="H24" s="104" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I24" s="103">
         <v>0.73</v>
@@ -12071,7 +12083,7 @@
         <v>36</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H30" s="50">
         <f>SUMIF($E$27:$E$27,$G30,$J$27:$J$28)</f>
@@ -12086,7 +12098,7 @@
       <c r="E31" s="131"/>
       <c r="F31" s="100"/>
       <c r="G31" s="65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H31" s="50">
         <f>SUMIF($E$27:$E$27,$G31,$J$27:$J$28)</f>
@@ -12101,7 +12113,7 @@
       <c r="E32" s="131"/>
       <c r="F32" s="100"/>
       <c r="G32" s="65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H32" s="50">
         <f>SUMIF($E$27:$E$27,$G32,$J$27:$J$28)</f>
@@ -12109,7 +12121,7 @@
       </c>
       <c r="I32" s="99"/>
       <c r="J32" s="132" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12136,7 +12148,7 @@
       <c r="C35" s="92"/>
       <c r="E35" s="131"/>
       <c r="F35" s="100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H35" s="61">
         <f>SUM(H30:H31)</f>
@@ -12193,15 +12205,15 @@
       <c r="J39" s="175"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="293"/>
-      <c r="C40" s="293"/>
-      <c r="D40" s="293"/>
-      <c r="E40" s="293"/>
-      <c r="F40" s="293"/>
-      <c r="G40" s="293"/>
-      <c r="H40" s="293"/>
-      <c r="I40" s="293"/>
-      <c r="J40" s="293"/>
+      <c r="B40" s="269"/>
+      <c r="C40" s="269"/>
+      <c r="D40" s="269"/>
+      <c r="E40" s="269"/>
+      <c r="F40" s="269"/>
+      <c r="G40" s="269"/>
+      <c r="H40" s="269"/>
+      <c r="I40" s="269"/>
+      <c r="J40" s="269"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="24" t="s">
@@ -12214,7 +12226,7 @@
       <c r="B43" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="276"/>
+      <c r="C43" s="262"/>
       <c r="D43" s="71"/>
       <c r="E43" s="28" t="s">
         <v>0</v>
@@ -12239,14 +12251,14 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D45" s="72"/>
       <c r="E45" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I45" s="25" t="s">
         <v>27</v>
@@ -12258,15 +12270,15 @@
     </row>
     <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="277"/>
+        <v>52</v>
+      </c>
+      <c r="C46" s="263"/>
       <c r="D46" s="73"/>
       <c r="E46" s="151" t="s">
         <v>19</v>
       </c>
       <c r="F46" s="240" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G46" s="149"/>
       <c r="H46" s="163"/>
@@ -12283,17 +12295,17 @@
   </sheetData>
   <autoFilter ref="B26:J27" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{F74B364E-86F6-429D-BD98-C748943E8F9F}"/>
@@ -12327,7 +12339,7 @@
     <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="70.28515625" style="7" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" style="7" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="7" customWidth="1"/>
@@ -12383,22 +12395,22 @@
       <c r="D4" s="124"/>
       <c r="E4" s="124"/>
       <c r="F4" s="124"/>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="128"/>
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
       <c r="F5" s="124"/>
-      <c r="H5" s="284" t="s">
+      <c r="H5" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="285"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="127" t="s">
@@ -12408,39 +12420,39 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="124"/>
-      <c r="H6" s="265" t="s">
+      <c r="H6" s="287" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="265"/>
-      <c r="J6" s="265"/>
+      <c r="I6" s="287"/>
+      <c r="J6" s="287"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
       <c r="F7" s="124"/>
-      <c r="H7" s="266" t="s">
+      <c r="H7" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="288"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
-      <c r="H8" s="265" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="H8" s="287" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -12450,11 +12462,11 @@
       <c r="D9" s="124"/>
       <c r="E9" s="124"/>
       <c r="F9" s="124"/>
-      <c r="H9" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
+      <c r="H9" s="287" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="125" t="s">
@@ -12471,11 +12483,11 @@
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
-      <c r="H11" s="267" t="s">
+      <c r="H11" s="286" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="267"/>
-      <c r="J11" s="267"/>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="115" t="s">
@@ -12483,28 +12495,28 @@
       </c>
       <c r="C12" s="121"/>
       <c r="D12" s="162" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="121"/>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="121"/>
       <c r="D13" s="119" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="121"/>
@@ -12521,27 +12533,27 @@
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="195" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="106"/>
-      <c r="H15" s="289" t="s">
+      <c r="H15" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="290"/>
-      <c r="J15" s="291"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="283"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="162"/>
       <c r="E16" s="106"/>
       <c r="G16" s="106"/>
-      <c r="H16" s="281" t="s">
+      <c r="H16" s="267" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="282" t="s">
+      <c r="J16" s="268" t="s">
         <v>33</v>
       </c>
     </row>
@@ -12594,7 +12606,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -12610,14 +12622,14 @@
       <c r="B21" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="264" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="264"/>
+      <c r="D21" s="290" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="290"/>
       <c r="F21" s="106"/>
       <c r="G21" s="106"/>
       <c r="H21" s="104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="103">
         <v>0.71</v>
@@ -12632,7 +12644,7 @@
       <c r="F22" s="106"/>
       <c r="G22" s="106"/>
       <c r="H22" s="104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="103">
         <v>0.61</v>
@@ -12645,7 +12657,7 @@
       <c r="F23" s="106"/>
       <c r="G23" s="106"/>
       <c r="H23" s="104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="103">
         <v>0.57999999999999996</v>
@@ -12658,7 +12670,7 @@
       <c r="F24" s="106"/>
       <c r="G24" s="106"/>
       <c r="H24" s="104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24" s="103">
         <v>0.55000000000000004</v>
@@ -12671,7 +12683,7 @@
       <c r="F25" s="106"/>
       <c r="G25" s="106"/>
       <c r="H25" s="104" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I25" s="103">
         <v>0.5</v>
@@ -12753,7 +12765,7 @@
       <c r="B31" s="95"/>
       <c r="C31" s="92"/>
       <c r="F31" s="100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H31" s="61"/>
       <c r="I31" s="94"/>
@@ -12793,15 +12805,15 @@
       <c r="J34" s="153"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="293"/>
-      <c r="C35" s="293"/>
-      <c r="D35" s="293"/>
-      <c r="E35" s="293"/>
-      <c r="F35" s="293"/>
-      <c r="G35" s="293"/>
-      <c r="H35" s="293"/>
-      <c r="I35" s="293"/>
-      <c r="J35" s="293"/>
+      <c r="B35" s="269"/>
+      <c r="C35" s="269"/>
+      <c r="D35" s="269"/>
+      <c r="E35" s="269"/>
+      <c r="F35" s="269"/>
+      <c r="G35" s="269"/>
+      <c r="H35" s="269"/>
+      <c r="I35" s="269"/>
+      <c r="J35" s="269"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="24" t="s">
@@ -12813,7 +12825,7 @@
       <c r="B38" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="276"/>
+      <c r="C38" s="262"/>
       <c r="D38" s="71"/>
       <c r="E38" s="28" t="s">
         <v>0</v>
@@ -12838,14 +12850,14 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D40" s="72"/>
       <c r="E40" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I40" s="25" t="s">
         <v>27</v>
@@ -12854,15 +12866,15 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="277"/>
+        <v>52</v>
+      </c>
+      <c r="C41" s="263"/>
       <c r="D41" s="73"/>
       <c r="E41" s="151" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G41" s="240"/>
       <c r="H41" s="149"/>
@@ -12970,6 +12982,8 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H7:J7"/>
@@ -12979,8 +12993,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{5771E4D7-2C5D-46D1-BE46-2649BE4617BC}"/>
@@ -13017,7 +13029,7 @@
     <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="89.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="118.140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="22.5703125" style="7" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" style="7" customWidth="1"/>
@@ -13069,11 +13081,11 @@
       <c r="D4" s="124"/>
       <c r="E4" s="124"/>
       <c r="F4" s="124"/>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="127" t="s">
@@ -13083,39 +13095,39 @@
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
       <c r="F5" s="124"/>
-      <c r="H5" s="284" t="s">
+      <c r="H5" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="285"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="124"/>
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="124"/>
-      <c r="H6" s="271" t="s">
+      <c r="H6" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
       <c r="F7" s="124"/>
-      <c r="H7" s="266" t="s">
+      <c r="H7" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="288"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -13125,11 +13137,11 @@
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
-      <c r="H8" s="265" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="H8" s="287" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="125" t="s">
@@ -13139,11 +13151,11 @@
       <c r="D9" s="124"/>
       <c r="E9" s="124"/>
       <c r="F9" s="124"/>
-      <c r="H9" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
+      <c r="H9" s="287" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="120"/>
@@ -13156,44 +13168,44 @@
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
-      <c r="H11" s="267" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="267"/>
-      <c r="J11" s="267"/>
+      <c r="H11" s="286" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="115" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="101" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="121"/>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="121"/>
       <c r="D13" s="101" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="121"/>
       <c r="D14" s="105" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="106"/>
@@ -13207,30 +13219,30 @@
       </c>
       <c r="C15" s="121"/>
       <c r="D15" s="105" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="106"/>
-      <c r="H15" s="289" t="s">
+      <c r="H15" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="290"/>
-      <c r="J15" s="291"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="283"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="106"/>
       <c r="D16" s="76" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E16" s="106"/>
       <c r="G16" s="106"/>
-      <c r="H16" s="281" t="s">
+      <c r="H16" s="267" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="282" t="s">
+      <c r="J16" s="268" t="s">
         <v>33</v>
       </c>
     </row>
@@ -13284,7 +13296,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -13301,14 +13313,14 @@
       <c r="B21" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="292" t="s">
-        <v>165</v>
+      <c r="D21" s="295" t="s">
+        <v>163</v>
       </c>
       <c r="E21" s="240"/>
       <c r="F21" s="240"/>
       <c r="G21" s="105"/>
       <c r="H21" s="104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="103">
         <v>0.71000000000000008</v>
@@ -13316,12 +13328,12 @@
       <c r="J21" s="110"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="292"/>
+      <c r="D22" s="295"/>
       <c r="E22" s="255"/>
       <c r="F22" s="255"/>
       <c r="G22" s="105"/>
       <c r="H22" s="104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="103">
         <v>0.6100000000000001</v>
@@ -13339,7 +13351,7 @@
       <c r="F23" s="106"/>
       <c r="G23" s="105"/>
       <c r="H23" s="104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="103">
         <v>0.58000000000000007</v>
@@ -13355,7 +13367,7 @@
       <c r="F24" s="106"/>
       <c r="G24" s="105"/>
       <c r="H24" s="104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24" s="103">
         <v>0.55000000000000004</v>
@@ -13371,7 +13383,7 @@
       <c r="F25" s="106"/>
       <c r="G25" s="105"/>
       <c r="H25" s="104" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I25" s="103">
         <v>0.5</v>
@@ -13455,7 +13467,7 @@
         <v>36</v>
       </c>
       <c r="G31" s="197" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H31" s="61"/>
       <c r="I31" s="94"/>
@@ -13466,7 +13478,7 @@
       <c r="C32" s="92"/>
       <c r="F32" s="60"/>
       <c r="G32" s="197" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H32" s="61"/>
       <c r="I32" s="94"/>
@@ -13477,7 +13489,7 @@
       <c r="C33" s="92"/>
       <c r="F33" s="61"/>
       <c r="G33" s="197" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H33" s="61"/>
       <c r="I33" s="94"/>
@@ -13488,7 +13500,7 @@
       <c r="C34" s="92"/>
       <c r="F34" s="61"/>
       <c r="G34" s="197" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H34" s="61"/>
       <c r="I34" s="94"/>
@@ -13499,7 +13511,7 @@
       <c r="C35" s="92"/>
       <c r="F35" s="61"/>
       <c r="G35" s="197" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H35" s="61"/>
       <c r="I35" s="94"/>
@@ -13510,7 +13522,7 @@
       <c r="C36" s="92"/>
       <c r="F36" s="61"/>
       <c r="G36" s="197" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H36" s="61"/>
       <c r="I36" s="94"/>
@@ -13521,7 +13533,7 @@
       <c r="C37" s="92"/>
       <c r="F37" s="61"/>
       <c r="G37" s="197" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H37" s="61"/>
       <c r="I37" s="94"/>
@@ -13532,7 +13544,7 @@
       <c r="C38" s="92"/>
       <c r="F38" s="61"/>
       <c r="G38" s="197" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H38" s="61"/>
       <c r="I38" s="94"/>
@@ -13543,7 +13555,7 @@
       <c r="C39" s="92"/>
       <c r="F39" s="61"/>
       <c r="G39" s="197" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H39" s="61"/>
       <c r="I39" s="94"/>
@@ -13554,7 +13566,7 @@
       <c r="C40" s="92"/>
       <c r="F40" s="61"/>
       <c r="G40" s="197" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H40" s="61"/>
       <c r="I40" s="94"/>
@@ -13565,7 +13577,7 @@
       <c r="C41" s="92"/>
       <c r="F41" s="61"/>
       <c r="G41" s="197" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H41" s="61"/>
       <c r="I41" s="94"/>
@@ -13576,7 +13588,7 @@
       <c r="C42" s="92"/>
       <c r="F42" s="61"/>
       <c r="G42" s="197" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H42" s="61"/>
       <c r="I42" s="94"/>
@@ -13587,7 +13599,7 @@
       <c r="C43" s="92"/>
       <c r="F43" s="61"/>
       <c r="G43" s="197" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H43" s="61"/>
       <c r="I43" s="94"/>
@@ -13598,7 +13610,7 @@
       <c r="C44" s="92"/>
       <c r="F44" s="61"/>
       <c r="G44" s="197" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H44" s="61"/>
       <c r="I44" s="94"/>
@@ -13625,7 +13637,7 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F47" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G47" s="61"/>
       <c r="H47" s="61"/>
@@ -13691,7 +13703,7 @@
       <c r="B55" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="276"/>
+      <c r="C55" s="262"/>
       <c r="D55" s="71"/>
       <c r="F55" s="28" t="s">
         <v>0</v>
@@ -13719,11 +13731,11 @@
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D57" s="72"/>
       <c r="F57" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G57" s="27" t="str">
         <f>D20</f>
@@ -13737,9 +13749,9 @@
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="277"/>
+        <v>52</v>
+      </c>
+      <c r="C58" s="263"/>
       <c r="D58" s="73"/>
       <c r="F58" s="196"/>
       <c r="G58" s="149"/>
@@ -13768,17 +13780,17 @@
   </sheetData>
   <autoFilter ref="B27:J28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H9:J9"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="D21:D22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{352B6C58-14F3-400C-8C56-43D69DB486FC}"/>
@@ -13812,7 +13824,7 @@
     <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="86.140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" style="7" customWidth="1"/>
@@ -13867,22 +13879,22 @@
       <c r="D4" s="124"/>
       <c r="E4" s="124"/>
       <c r="F4" s="124"/>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="128"/>
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
       <c r="F5" s="124"/>
-      <c r="H5" s="284" t="s">
+      <c r="H5" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="285"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="127" t="s">
@@ -13892,39 +13904,39 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="124"/>
-      <c r="H6" s="271" t="s">
+      <c r="H6" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
       <c r="F7" s="124"/>
-      <c r="H7" s="266" t="s">
+      <c r="H7" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="288"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
-      <c r="H8" s="265" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="H8" s="287" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -13934,11 +13946,11 @@
       <c r="D9" s="124"/>
       <c r="E9" s="124"/>
       <c r="F9" s="124"/>
-      <c r="H9" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
+      <c r="H9" s="287" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="125" t="s">
@@ -13954,11 +13966,11 @@
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
-      <c r="H11" s="267" t="s">
+      <c r="H11" s="286" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="267"/>
-      <c r="J11" s="267"/>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="115" t="s">
@@ -13966,33 +13978,33 @@
       </c>
       <c r="C12" s="121"/>
       <c r="D12" s="162" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="121"/>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="121"/>
       <c r="D13" s="119" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="121"/>
       <c r="D14" s="118" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="106"/>
@@ -14006,27 +14018,27 @@
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="118" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="106"/>
-      <c r="H15" s="289" t="s">
+      <c r="H15" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="290"/>
-      <c r="J15" s="291"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="283"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="162"/>
       <c r="E16" s="106"/>
       <c r="G16" s="106"/>
-      <c r="H16" s="281" t="s">
+      <c r="H16" s="267" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="282" t="s">
+      <c r="J16" s="268" t="s">
         <v>33</v>
       </c>
     </row>
@@ -14081,7 +14093,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -14098,14 +14110,14 @@
       <c r="B21" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="264" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="264"/>
+      <c r="D21" s="290" t="s">
+        <v>169</v>
+      </c>
+      <c r="E21" s="290"/>
       <c r="F21" s="106"/>
       <c r="G21" s="105"/>
       <c r="H21" s="104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="103">
         <v>0.84</v>
@@ -14121,7 +14133,7 @@
       <c r="F22" s="106"/>
       <c r="G22" s="105"/>
       <c r="H22" s="104" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I22" s="103">
         <v>0.79</v>
@@ -14135,7 +14147,7 @@
       <c r="F23" s="106"/>
       <c r="G23" s="105"/>
       <c r="H23" s="104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="103">
         <v>0.75</v>
@@ -14149,7 +14161,7 @@
       <c r="F24" s="106"/>
       <c r="G24" s="105"/>
       <c r="H24" s="104" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I24" s="103">
         <v>0.73</v>
@@ -14169,7 +14181,7 @@
       <c r="L25" s="120"/>
       <c r="M25" s="120"/>
     </row>
-    <row r="26" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="257" t="s">
         <v>11</v>
       </c>
@@ -14234,7 +14246,7 @@
         <v>36</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H30" s="50">
         <f>SUMIF($E$27:$E$27,$G30,$J$27:$J$28)</f>
@@ -14249,7 +14261,7 @@
       <c r="E31" s="65"/>
       <c r="F31" s="100"/>
       <c r="G31" s="65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H31" s="50">
         <f>SUMIF($E$27:$E$27,$G31,$J$27:$J$28)</f>
@@ -14257,7 +14269,7 @@
       </c>
       <c r="I31" s="99"/>
       <c r="J31" s="132" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -14284,7 +14296,7 @@
       <c r="C34" s="92"/>
       <c r="E34" s="65"/>
       <c r="F34" s="100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H34" s="61">
         <f>SUM(H30:H30)</f>
@@ -14341,15 +14353,15 @@
       <c r="J38" s="175"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="293"/>
-      <c r="C39" s="293"/>
-      <c r="D39" s="293"/>
-      <c r="E39" s="293"/>
-      <c r="F39" s="293"/>
-      <c r="G39" s="293"/>
-      <c r="H39" s="293"/>
-      <c r="I39" s="293"/>
-      <c r="J39" s="293"/>
+      <c r="B39" s="269"/>
+      <c r="C39" s="269"/>
+      <c r="D39" s="269"/>
+      <c r="E39" s="269"/>
+      <c r="F39" s="269"/>
+      <c r="G39" s="269"/>
+      <c r="H39" s="269"/>
+      <c r="I39" s="269"/>
+      <c r="J39" s="269"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="24" t="s">
@@ -14361,7 +14373,7 @@
       <c r="B42" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="276"/>
+      <c r="C42" s="262"/>
       <c r="D42" s="71"/>
       <c r="E42" s="28" t="s">
         <v>0</v>
@@ -14386,14 +14398,14 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D44" s="72"/>
       <c r="E44" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I44" s="25" t="s">
         <v>27</v>
@@ -14405,15 +14417,15 @@
     </row>
     <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="277"/>
+        <v>52</v>
+      </c>
+      <c r="C45" s="263"/>
       <c r="D45" s="73"/>
       <c r="E45" s="151" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="240" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G45" s="240"/>
       <c r="H45" s="149"/>
@@ -14522,17 +14534,17 @@
   </sheetData>
   <autoFilter ref="B26:J27" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H9:J9"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{605FE35A-7100-4C8A-9003-D457AC1EA76A}"/>
@@ -14567,7 +14579,7 @@
     <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="80" style="7" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="7" customWidth="1"/>
     <col min="6" max="7" width="22.85546875" style="7" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" style="7" customWidth="1"/>
@@ -14621,22 +14633,22 @@
       <c r="D4" s="124"/>
       <c r="E4" s="124"/>
       <c r="F4" s="243"/>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="128"/>
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
       <c r="F5" s="244"/>
-      <c r="H5" s="284" t="s">
+      <c r="H5" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="285"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="127" t="s">
@@ -14646,39 +14658,39 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="41"/>
-      <c r="H6" s="265" t="s">
+      <c r="H6" s="287" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="265"/>
-      <c r="J6" s="265"/>
+      <c r="I6" s="287"/>
+      <c r="J6" s="287"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
       <c r="F7" s="41"/>
-      <c r="H7" s="266" t="s">
+      <c r="H7" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="288"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
       <c r="F8" s="42"/>
-      <c r="H8" s="265" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="H8" s="287" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -14688,11 +14700,11 @@
       <c r="D9" s="124"/>
       <c r="E9" s="124"/>
       <c r="F9" s="41"/>
-      <c r="H9" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
+      <c r="H9" s="287" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="125" t="s">
@@ -14709,11 +14721,11 @@
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
       <c r="F11" s="13"/>
-      <c r="H11" s="267" t="s">
+      <c r="H11" s="286" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="267"/>
-      <c r="J11" s="267"/>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="115" t="s">
@@ -14721,33 +14733,33 @@
       </c>
       <c r="C12" s="121"/>
       <c r="D12" s="119" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="13"/>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="121"/>
       <c r="D13" s="122" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="13"/>
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="121"/>
       <c r="D14" s="118" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="248"/>
@@ -14763,23 +14775,23 @@
       <c r="D15" s="195"/>
       <c r="E15" s="106"/>
       <c r="F15" s="243"/>
-      <c r="H15" s="289" t="s">
+      <c r="H15" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="290"/>
-      <c r="J15" s="291"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="283"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="162"/>
       <c r="E16" s="106"/>
       <c r="G16" s="41"/>
-      <c r="H16" s="281" t="s">
+      <c r="H16" s="267" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="282" t="s">
+      <c r="J16" s="268" t="s">
         <v>33</v>
       </c>
     </row>
@@ -14832,7 +14844,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="248"/>
@@ -14848,14 +14860,14 @@
       <c r="B21" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="264" t="s">
-        <v>176</v>
-      </c>
-      <c r="E21" s="264"/>
+      <c r="D21" s="290" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="290"/>
       <c r="F21" s="248"/>
       <c r="G21" s="234"/>
       <c r="H21" s="104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="103">
         <v>1.1299999999999997</v>
@@ -14870,7 +14882,7 @@
       <c r="F22" s="248"/>
       <c r="G22" s="234"/>
       <c r="H22" s="104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="103">
         <v>1.0599999999999996</v>
@@ -14883,7 +14895,7 @@
       <c r="F23" s="248"/>
       <c r="G23" s="234"/>
       <c r="H23" s="104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="103">
         <v>1.0299999999999996</v>
@@ -14896,7 +14908,7 @@
       <c r="F24" s="248"/>
       <c r="G24" s="234"/>
       <c r="H24" s="104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24" s="103">
         <v>0.98999999999999955</v>
@@ -14909,7 +14921,7 @@
       <c r="F25" s="248"/>
       <c r="G25" s="234"/>
       <c r="H25" s="104" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I25" s="103">
         <v>0.9399999999999995</v>
@@ -14992,7 +15004,7 @@
         <v>36</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H31" s="50">
         <f>SUMIF(E28:E28,G31,H28:H28)</f>
@@ -15009,7 +15021,7 @@
       <c r="C32" s="92"/>
       <c r="F32" s="100"/>
       <c r="G32" s="65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H32" s="50">
         <f>SUMIF(E28:E28,G32,H28:H28)</f>
@@ -15017,7 +15029,7 @@
       </c>
       <c r="I32" s="99"/>
       <c r="J32" s="129" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -15042,7 +15054,7 @@
       <c r="B35" s="95"/>
       <c r="C35" s="92"/>
       <c r="F35" s="100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H35" s="61">
         <f>SUM(H31)</f>
@@ -15098,15 +15110,15 @@
       <c r="J39" s="153"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="293"/>
-      <c r="C40" s="293"/>
-      <c r="D40" s="293"/>
-      <c r="E40" s="293"/>
-      <c r="F40" s="293"/>
-      <c r="G40" s="293"/>
-      <c r="H40" s="293"/>
-      <c r="I40" s="293"/>
-      <c r="J40" s="293"/>
+      <c r="B40" s="269"/>
+      <c r="C40" s="269"/>
+      <c r="D40" s="269"/>
+      <c r="E40" s="269"/>
+      <c r="F40" s="269"/>
+      <c r="G40" s="269"/>
+      <c r="H40" s="269"/>
+      <c r="I40" s="269"/>
+      <c r="J40" s="269"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="24" t="s">
@@ -15118,7 +15130,7 @@
       <c r="B43" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="276"/>
+      <c r="C43" s="262"/>
       <c r="D43" s="71"/>
       <c r="E43" s="28" t="s">
         <v>0</v>
@@ -15143,11 +15155,11 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D45" s="72"/>
       <c r="E45" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F45" s="27" t="str">
         <f>D20</f>
@@ -15163,9 +15175,9 @@
     </row>
     <row r="46" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="277"/>
+        <v>52</v>
+      </c>
+      <c r="C46" s="263"/>
       <c r="D46" s="73"/>
       <c r="E46" s="151" t="s">
         <v>19</v>
@@ -15279,17 +15291,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H9:J9"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{3C868628-3C5E-4072-BECC-2196E0B2F9D1}"/>
@@ -15326,7 +15338,7 @@
     <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="88.28515625" style="7" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" style="7" customWidth="1"/>
     <col min="7" max="7" width="23.140625" style="7" customWidth="1"/>
@@ -15381,22 +15393,22 @@
       <c r="D4" s="124"/>
       <c r="E4" s="124"/>
       <c r="F4" s="124"/>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="128"/>
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
       <c r="F5" s="124"/>
-      <c r="H5" s="284" t="s">
+      <c r="H5" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="285"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="127" t="s">
@@ -15406,39 +15418,39 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="124"/>
-      <c r="H6" s="271" t="s">
+      <c r="H6" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
       <c r="F7" s="124"/>
-      <c r="H7" s="266" t="s">
+      <c r="H7" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="288"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
-      <c r="H8" s="265" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="H8" s="287" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -15448,11 +15460,11 @@
       <c r="D9" s="124"/>
       <c r="E9" s="124"/>
       <c r="F9" s="124"/>
-      <c r="H9" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
+      <c r="H9" s="287" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="125" t="s">
@@ -15468,11 +15480,11 @@
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
-      <c r="H11" s="267" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="267"/>
-      <c r="J11" s="267"/>
+      <c r="H11" s="286" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="115" t="s">
@@ -15480,28 +15492,28 @@
       </c>
       <c r="C12" s="121"/>
       <c r="D12" s="162" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="121"/>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="121"/>
       <c r="D13" s="119" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="121"/>
@@ -15518,27 +15530,27 @@
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="195" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="106"/>
-      <c r="H15" s="289" t="s">
+      <c r="H15" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="290"/>
-      <c r="J15" s="291"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="283"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="162"/>
       <c r="E16" s="106"/>
       <c r="G16" s="106"/>
-      <c r="H16" s="281" t="s">
+      <c r="H16" s="267" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="282" t="s">
+      <c r="J16" s="268" t="s">
         <v>33</v>
       </c>
     </row>
@@ -15593,7 +15605,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -15610,14 +15622,14 @@
       <c r="B21" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="264" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="264"/>
+      <c r="D21" s="290" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="290"/>
       <c r="F21" s="106"/>
       <c r="G21" s="105"/>
       <c r="H21" s="104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="103">
         <v>0.84</v>
@@ -15633,7 +15645,7 @@
       <c r="F22" s="106"/>
       <c r="G22" s="105"/>
       <c r="H22" s="104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="103">
         <v>0.79</v>
@@ -15647,7 +15659,7 @@
       <c r="F23" s="106"/>
       <c r="G23" s="105"/>
       <c r="H23" s="104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="103">
         <v>0.75</v>
@@ -15661,7 +15673,7 @@
       <c r="F24" s="106"/>
       <c r="G24" s="105"/>
       <c r="H24" s="104" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I24" s="103">
         <v>0.73</v>
@@ -15747,7 +15759,7 @@
         <v>36</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H30" s="50"/>
       <c r="I30" s="99"/>
@@ -15759,7 +15771,7 @@
       <c r="E31" s="65"/>
       <c r="F31" s="100"/>
       <c r="G31" s="65" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H31" s="50"/>
       <c r="I31" s="99"/>
@@ -15771,7 +15783,7 @@
       <c r="E32" s="65"/>
       <c r="F32" s="100"/>
       <c r="G32" s="65" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H32" s="50"/>
       <c r="I32" s="99"/>
@@ -15801,7 +15813,7 @@
       <c r="C35" s="92"/>
       <c r="E35" s="65"/>
       <c r="F35" s="100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H35" s="61">
         <f>SUM($H$30:$H$32)</f>
@@ -15847,7 +15859,7 @@
       <c r="B40" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="276"/>
+      <c r="C40" s="262"/>
       <c r="D40" s="71"/>
       <c r="E40" s="28" t="s">
         <v>0</v>
@@ -15872,11 +15884,11 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42" s="72"/>
       <c r="E42" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F42" s="27" t="str">
         <f>D20</f>
@@ -15892,9 +15904,9 @@
     </row>
     <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="277"/>
+        <v>52</v>
+      </c>
+      <c r="C43" s="263"/>
       <c r="D43" s="73"/>
       <c r="E43" s="151" t="s">
         <v>19</v>
@@ -16010,17 +16022,17 @@
   </sheetData>
   <autoFilter ref="B26:J27" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{0E335288-202B-4A2D-9E56-A72B6AE44135}"/>
@@ -16057,7 +16069,7 @@
     <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="51.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="79" style="7" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" style="7" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" style="7" customWidth="1"/>
@@ -16111,22 +16123,22 @@
       <c r="D4" s="124"/>
       <c r="E4" s="124"/>
       <c r="F4" s="243"/>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="128"/>
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
       <c r="F5" s="244"/>
-      <c r="H5" s="284" t="s">
+      <c r="H5" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="285"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="127" t="s">
@@ -16136,39 +16148,39 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="245"/>
-      <c r="H6" s="271" t="s">
+      <c r="H6" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
       <c r="F7" s="245"/>
-      <c r="H7" s="266" t="s">
+      <c r="H7" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="288"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
       <c r="F8" s="245"/>
-      <c r="H8" s="265" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="H8" s="287" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -16178,11 +16190,11 @@
       <c r="D9" s="124"/>
       <c r="E9" s="124"/>
       <c r="F9" s="245"/>
-      <c r="H9" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
+      <c r="H9" s="287" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="125" t="s">
@@ -16198,11 +16210,11 @@
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
       <c r="F11" s="244"/>
-      <c r="H11" s="267" t="s">
+      <c r="H11" s="286" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="267"/>
-      <c r="J11" s="267"/>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="115" t="s">
@@ -16210,28 +16222,28 @@
       </c>
       <c r="C12" s="121"/>
       <c r="D12" s="162" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="244"/>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="121"/>
       <c r="D13" s="119" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="246"/>
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="121"/>
@@ -16248,27 +16260,27 @@
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="195" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="243"/>
-      <c r="H15" s="289" t="s">
+      <c r="H15" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="290"/>
-      <c r="J15" s="291"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="283"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="162"/>
       <c r="E16" s="106"/>
       <c r="G16" s="41"/>
-      <c r="H16" s="281" t="s">
+      <c r="H16" s="267" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="282" t="s">
+      <c r="J16" s="268" t="s">
         <v>33</v>
       </c>
     </row>
@@ -16323,7 +16335,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="41"/>
@@ -16340,14 +16352,14 @@
       <c r="B21" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="264" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" s="264"/>
+      <c r="D21" s="290" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" s="290"/>
       <c r="F21" s="41"/>
       <c r="G21" s="105"/>
       <c r="H21" s="104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="103">
         <v>1.1299999999999997</v>
@@ -16363,7 +16375,7 @@
       <c r="F22" s="41"/>
       <c r="G22" s="105"/>
       <c r="H22" s="104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="103">
         <v>1.0599999999999996</v>
@@ -16377,7 +16389,7 @@
       <c r="F23" s="41"/>
       <c r="G23" s="105"/>
       <c r="H23" s="104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="103">
         <v>1.0299999999999996</v>
@@ -16391,7 +16403,7 @@
       <c r="F24" s="41"/>
       <c r="G24" s="105"/>
       <c r="H24" s="104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24" s="103">
         <v>0.98999999999999955</v>
@@ -16405,7 +16417,7 @@
       <c r="F25" s="41"/>
       <c r="G25" s="105"/>
       <c r="H25" s="104" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I25" s="103">
         <v>0.9399999999999995</v>
@@ -16488,15 +16500,15 @@
         <v>36</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H31" s="50">
-        <f>SUMIF($E$28:$E$28,$G31,$H$28:$H$29)</f>
+        <f t="shared" ref="H31:H37" si="0">SUMIF($E$28:$E$28,$G31,$H$28:$H$29)</f>
         <v>0</v>
       </c>
       <c r="I31" s="99"/>
       <c r="J31" s="98">
-        <f>SUMIF($E$28:$E$28,$G31,$J$28:$J$29)</f>
+        <f t="shared" ref="J31:J37" si="1">SUMIF($E$28:$E$28,$G31,$J$28:$J$29)</f>
         <v>0</v>
       </c>
     </row>
@@ -16505,15 +16517,15 @@
       <c r="C32" s="92"/>
       <c r="F32" s="100"/>
       <c r="G32" s="65" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H32" s="50">
-        <f>SUMIF($E$28:$E$28,$G32,$H$28:$H$29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I32" s="99"/>
       <c r="J32" s="98">
-        <f>SUMIF($E$28:$E$28,$G32,$J$28:$J$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16522,15 +16534,15 @@
       <c r="C33" s="92"/>
       <c r="F33" s="100"/>
       <c r="G33" s="65" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H33" s="50">
-        <f>SUMIF($E$28:$E$28,$G33,$H$28:$H$29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I33" s="99"/>
       <c r="J33" s="98">
-        <f>SUMIF($E$28:$E$28,$G33,$J$28:$J$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16539,15 +16551,15 @@
       <c r="C34" s="92"/>
       <c r="F34" s="100"/>
       <c r="G34" s="65" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H34" s="50">
-        <f>SUMIF($E$28:$E$28,$G34,$H$28:$H$29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I34" s="99"/>
       <c r="J34" s="98">
-        <f>SUMIF($E$28:$E$28,$G34,$J$28:$J$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16556,15 +16568,15 @@
       <c r="C35" s="92"/>
       <c r="F35" s="100"/>
       <c r="G35" s="65" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H35" s="50">
-        <f>SUMIF($E$28:$E$28,$G35,$H$28:$H$29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I35" s="99"/>
       <c r="J35" s="98">
-        <f>SUMIF($E$28:$E$28,$G35,$J$28:$J$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16573,15 +16585,15 @@
       <c r="C36" s="92"/>
       <c r="F36" s="100"/>
       <c r="G36" s="65" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H36" s="50">
-        <f>SUMIF($E$28:$E$28,$G36,$H$28:$H$29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I36" s="99"/>
       <c r="J36" s="98">
-        <f>SUMIF($E$28:$E$28,$G36,$J$28:$J$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16590,15 +16602,15 @@
       <c r="C37" s="92"/>
       <c r="F37" s="100"/>
       <c r="G37" s="65" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H37" s="50">
-        <f>SUMIF($E$28:$E$28,$G37,$H$28:$H$29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I37" s="99"/>
       <c r="J37" s="98">
-        <f>SUMIF($E$28:$E$28,$G37,$J$28:$J$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16624,7 +16636,7 @@
       <c r="B40" s="95"/>
       <c r="C40" s="92"/>
       <c r="F40" s="100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H40" s="61">
         <f>SUM($H$31:$H$38)</f>
@@ -16675,7 +16687,7 @@
       <c r="B45" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="276"/>
+      <c r="C45" s="262"/>
       <c r="D45" s="71"/>
       <c r="E45" s="28" t="s">
         <v>0</v>
@@ -16706,11 +16718,11 @@
     </row>
     <row r="47" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D47" s="72"/>
       <c r="E47" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F47" s="27" t="str">
         <f>D20</f>
@@ -16727,9 +16739,9 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="277"/>
+        <v>52</v>
+      </c>
+      <c r="C48" s="263"/>
       <c r="D48" s="73"/>
       <c r="E48" s="18"/>
       <c r="F48" s="149"/>
@@ -16829,17 +16841,17 @@
   </sheetData>
   <autoFilter ref="B27:J28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H9:J9"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{E695E26E-8B66-4994-A983-693A851799B3}"/>
@@ -16868,8 +16880,8 @@
   </sheetPr>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16877,7 +16889,7 @@
     <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="80.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="98.5703125" style="7" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" style="7" customWidth="1"/>
@@ -16933,22 +16945,22 @@
       <c r="D4" s="124"/>
       <c r="E4" s="124"/>
       <c r="F4" s="251"/>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="128"/>
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
       <c r="F5" s="244"/>
-      <c r="H5" s="284" t="s">
+      <c r="H5" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="285"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="127" t="s">
@@ -16958,39 +16970,39 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="245"/>
-      <c r="H6" s="265" t="s">
+      <c r="H6" s="287" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="265"/>
-      <c r="J6" s="265"/>
+      <c r="I6" s="287"/>
+      <c r="J6" s="287"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
       <c r="F7" s="245"/>
-      <c r="H7" s="266" t="s">
+      <c r="H7" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="288"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
       <c r="F8" s="245"/>
-      <c r="H8" s="265" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="H8" s="287" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -17000,11 +17012,11 @@
       <c r="D9" s="124"/>
       <c r="E9" s="124"/>
       <c r="F9" s="245"/>
-      <c r="H9" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
+      <c r="H9" s="287" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="125" t="s">
@@ -17021,11 +17033,11 @@
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
       <c r="F11" s="244"/>
-      <c r="H11" s="267" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="267"/>
-      <c r="J11" s="267"/>
+      <c r="H11" s="286" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="115" t="s">
@@ -17033,33 +17045,33 @@
       </c>
       <c r="C12" s="121"/>
       <c r="D12" s="217" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="244"/>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" s="121"/>
       <c r="D13" s="217" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="246"/>
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="121"/>
       <c r="D14" s="217" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="248"/>
@@ -17073,15 +17085,15 @@
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="217" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="251"/>
-      <c r="H15" s="287" t="s">
+      <c r="H15" s="296" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="263"/>
-      <c r="J15" s="288"/>
+      <c r="I15" s="297"/>
+      <c r="J15" s="298"/>
       <c r="K15" s="63"/>
       <c r="L15" s="63"/>
       <c r="M15" s="46"/>
@@ -17092,13 +17104,13 @@
       <c r="D16" s="118"/>
       <c r="E16" s="106"/>
       <c r="G16" s="41"/>
-      <c r="H16" s="281" t="s">
+      <c r="H16" s="267" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="282" t="s">
+      <c r="J16" s="268" t="s">
         <v>33</v>
       </c>
       <c r="K16" s="63"/>
@@ -17161,7 +17173,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="41"/>
@@ -17180,14 +17192,14 @@
       <c r="B21" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="264" t="s">
-        <v>200</v>
-      </c>
-      <c r="E21" s="264"/>
+      <c r="D21" s="290" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="290"/>
       <c r="F21" s="41"/>
       <c r="G21" s="105"/>
       <c r="H21" s="104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="103">
         <v>0.71000000000000008</v>
@@ -17205,7 +17217,7 @@
       <c r="F22" s="41"/>
       <c r="G22" s="105"/>
       <c r="H22" s="104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="103">
         <v>0.6100000000000001</v>
@@ -17221,7 +17233,7 @@
       <c r="F23" s="41"/>
       <c r="G23" s="105"/>
       <c r="H23" s="104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="103">
         <v>0.58000000000000007</v>
@@ -17237,7 +17249,7 @@
       <c r="F24" s="41"/>
       <c r="G24" s="105"/>
       <c r="H24" s="236" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24" s="108">
         <v>0.55000000000000004</v>
@@ -17253,7 +17265,7 @@
       <c r="F25" s="41"/>
       <c r="G25" s="105"/>
       <c r="H25" s="236" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I25" s="108">
         <v>0.5</v>
@@ -17272,10 +17284,10 @@
       <c r="I26" s="64"/>
     </row>
     <row r="27" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="272" t="s">
+      <c r="B27" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="273"/>
+      <c r="C27" s="293"/>
       <c r="D27" s="20" t="s">
         <v>35</v>
       </c>
@@ -17288,10 +17300,10 @@
       <c r="G27" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="274" t="s">
-        <v>199</v>
-      </c>
-      <c r="I27" s="274"/>
+      <c r="H27" s="294" t="s">
+        <v>197</v>
+      </c>
+      <c r="I27" s="294"/>
       <c r="J27" s="260" t="s">
         <v>5</v>
       </c>
@@ -17302,27 +17314,23 @@
         <v>001A</v>
       </c>
       <c r="C28" s="92"/>
-      <c r="D28" s="7" t="str">
-        <f t="shared" ref="D28:D37" si="0">E28&amp;" March 19 Campaigns"</f>
-        <v>truTV March 19 Campaigns</v>
-      </c>
       <c r="E28" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F28" s="131">
-        <f t="shared" ref="F28:F37" si="1">$D$18</f>
+        <f t="shared" ref="F28:F37" si="0">$D$18</f>
         <v>0</v>
       </c>
       <c r="G28" s="131">
-        <f t="shared" ref="G28:G37" si="2">$D$19</f>
+        <f t="shared" ref="G28:G37" si="1">$D$19</f>
         <v>0</v>
       </c>
       <c r="I28" s="253">
-        <f>H45</f>
+        <f t="shared" ref="I28:I37" si="2">H45</f>
         <v>0</v>
       </c>
       <c r="J28" s="158">
-        <f>J45</f>
+        <f t="shared" ref="J28:J37" si="3">J45</f>
         <v>0</v>
       </c>
       <c r="L28" s="64"/>
@@ -17333,27 +17341,23 @@
         <v>002A</v>
       </c>
       <c r="C29" s="92"/>
-      <c r="D29" s="7" t="str">
+      <c r="E29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="131">
         <f t="shared" si="0"/>
-        <v>Adult Swim March 19 Campaigns</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F29" s="131">
+        <v>0</v>
+      </c>
+      <c r="G29" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G29" s="131">
+      <c r="I29" s="253">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I29" s="253">
-        <f>H46</f>
-        <v>0</v>
-      </c>
       <c r="J29" s="158">
-        <f>J46</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -17363,27 +17367,23 @@
         <v>003A</v>
       </c>
       <c r="C30" s="92"/>
-      <c r="D30" s="7" t="str">
+      <c r="E30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="131">
         <f t="shared" si="0"/>
-        <v>TBS March 19 Campaigns</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" s="131">
+        <v>0</v>
+      </c>
+      <c r="G30" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="131">
+      <c r="I30" s="253">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I30" s="253">
-        <f>H47</f>
-        <v>0</v>
-      </c>
       <c r="J30" s="158">
-        <f>J47</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L30" s="64"/>
@@ -17394,27 +17394,23 @@
         <v>004A</v>
       </c>
       <c r="C31" s="92"/>
-      <c r="D31" s="7" t="str">
+      <c r="E31" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" s="131">
         <f t="shared" si="0"/>
-        <v>Boomerang March 19 Campaigns</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F31" s="131">
+        <v>0</v>
+      </c>
+      <c r="G31" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G31" s="131">
+      <c r="I31" s="253">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I31" s="253">
-        <f>H48</f>
-        <v>0</v>
-      </c>
       <c r="J31" s="158">
-        <f>J48</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -17424,27 +17420,23 @@
         <v>005A</v>
       </c>
       <c r="C32" s="92"/>
-      <c r="D32" s="7" t="str">
+      <c r="E32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="131">
         <f t="shared" si="0"/>
-        <v>Cartoon Network March 19 Campaigns</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F32" s="131">
+        <v>0</v>
+      </c>
+      <c r="G32" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G32" s="131">
+      <c r="I32" s="253">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I32" s="253">
-        <f>H49</f>
-        <v>0</v>
-      </c>
       <c r="J32" s="158">
-        <f>J49</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -17454,27 +17446,23 @@
         <v>006A</v>
       </c>
       <c r="C33" s="92"/>
-      <c r="D33" s="7" t="str">
+      <c r="E33" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="131">
         <f t="shared" si="0"/>
-        <v>Cartoon Network ESP March 19 Campaigns</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F33" s="131">
+        <v>0</v>
+      </c>
+      <c r="G33" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G33" s="131">
+      <c r="I33" s="253">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I33" s="253">
-        <f>H50</f>
-        <v>0</v>
-      </c>
       <c r="J33" s="158">
-        <f>J50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -17484,27 +17472,23 @@
         <v>007A</v>
       </c>
       <c r="C34" s="92"/>
-      <c r="D34" s="7" t="str">
+      <c r="E34" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" s="131">
         <f t="shared" si="0"/>
-        <v>CNN March 19 Campaigns</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F34" s="131">
+        <v>0</v>
+      </c>
+      <c r="G34" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G34" s="131">
+      <c r="I34" s="253">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I34" s="253">
-        <f>H51</f>
-        <v>0</v>
-      </c>
       <c r="J34" s="158">
-        <f>J51</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -17514,27 +17498,23 @@
         <v>008A</v>
       </c>
       <c r="C35" s="92"/>
-      <c r="D35" s="7" t="str">
+      <c r="E35" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="131">
         <f t="shared" si="0"/>
-        <v>HLN March 19 Campaigns</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F35" s="131">
+        <v>0</v>
+      </c>
+      <c r="G35" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G35" s="131">
+      <c r="I35" s="253">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I35" s="253">
-        <f>H52</f>
-        <v>0</v>
-      </c>
       <c r="J35" s="158">
-        <f>J52</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -17544,27 +17524,23 @@
         <v>009A</v>
       </c>
       <c r="C36" s="92"/>
-      <c r="D36" s="7" t="str">
+      <c r="E36" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" s="131">
         <f t="shared" si="0"/>
-        <v>TNT March 19 Campaigns</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F36" s="131">
+        <v>0</v>
+      </c>
+      <c r="G36" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G36" s="131">
+      <c r="I36" s="253">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I36" s="253">
-        <f>H53</f>
-        <v>0</v>
-      </c>
       <c r="J36" s="158">
-        <f>J53</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -17574,27 +17550,23 @@
         <v>010A</v>
       </c>
       <c r="C37" s="92"/>
-      <c r="D37" s="7" t="str">
+      <c r="E37" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" s="131">
         <f t="shared" si="0"/>
-        <v>March Madness March 19 Campaigns</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F37" s="131">
+        <v>0</v>
+      </c>
+      <c r="G37" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G37" s="131">
+      <c r="I37" s="253">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I37" s="253">
-        <f>H54</f>
-        <v>0</v>
-      </c>
       <c r="J37" s="158">
-        <f>J54</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -17614,7 +17586,7 @@
       <c r="G39" s="131"/>
       <c r="H39" s="98"/>
       <c r="I39" s="214" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J39" s="213">
         <f>SUM(J28:J37)</f>
@@ -17696,15 +17668,15 @@
         <v>36</v>
       </c>
       <c r="G45" s="65" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H45" s="50">
-        <f>SUMIF($E$42:$E$42,$G45,$H$42:$H$43)</f>
+        <f t="shared" ref="H45:H54" si="4">SUMIF($E$42:$E$42,$G45,$H$42:$H$43)</f>
         <v>0</v>
       </c>
       <c r="I45" s="99"/>
       <c r="J45" s="98">
-        <f>SUMIF($E$42:$E$42,$G45,$J$42:$J$43)</f>
+        <f t="shared" ref="J45:J54" si="5">SUMIF($E$42:$E$42,$G45,$J$42:$J$43)</f>
         <v>0</v>
       </c>
       <c r="M45" s="59"/>
@@ -17715,15 +17687,15 @@
       <c r="E46" s="131"/>
       <c r="F46" s="100"/>
       <c r="G46" s="65" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H46" s="50">
-        <f>SUMIF($E$42:$E$42,$G46,$H$42:$H$43)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I46" s="99"/>
       <c r="J46" s="98">
-        <f>SUMIF($E$42:$E$42,$G46,$J$42:$J$43)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M46" s="59"/>
@@ -17734,15 +17706,15 @@
       <c r="E47" s="131"/>
       <c r="F47" s="100"/>
       <c r="G47" s="65" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H47" s="50">
-        <f>SUMIF($E$42:$E$42,$G47,$H$42:$H$43)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I47" s="99"/>
       <c r="J47" s="98">
-        <f>SUMIF($E$42:$E$42,$G47,$J$42:$J$43)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M47" s="59"/>
@@ -17753,15 +17725,15 @@
       <c r="E48" s="131"/>
       <c r="F48" s="100"/>
       <c r="G48" s="65" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H48" s="50">
-        <f>SUMIF($E$42:$E$42,$G48,$H$42:$H$43)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I48" s="99"/>
       <c r="J48" s="98">
-        <f>SUMIF($E$42:$E$42,$G48,$J$42:$J$43)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M48" s="59"/>
@@ -17772,15 +17744,15 @@
       <c r="E49" s="131"/>
       <c r="F49" s="100"/>
       <c r="G49" s="65" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H49" s="50">
-        <f>SUMIF($E$42:$E$42,$G49,$H$42:$H$43)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I49" s="99"/>
       <c r="J49" s="98">
-        <f>SUMIF($E$42:$E$42,$G49,$J$42:$J$43)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M49" s="59"/>
@@ -17791,15 +17763,15 @@
       <c r="E50" s="131"/>
       <c r="F50" s="100"/>
       <c r="G50" s="65" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H50" s="50">
-        <f>SUMIF($E$42:$E$42,$G50,$H$42:$H$43)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I50" s="99"/>
       <c r="J50" s="98">
-        <f>SUMIF($E$42:$E$42,$G50,$J$42:$J$43)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17809,15 +17781,15 @@
       <c r="E51" s="131"/>
       <c r="F51" s="100"/>
       <c r="G51" s="65" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H51" s="50">
-        <f>SUMIF($E$42:$E$42,$G51,$H$42:$H$43)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I51" s="99"/>
       <c r="J51" s="98">
-        <f>SUMIF($E$42:$E$42,$G51,$J$42:$J$43)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17827,15 +17799,15 @@
       <c r="E52" s="131"/>
       <c r="F52" s="100"/>
       <c r="G52" s="65" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H52" s="50">
-        <f>SUMIF($E$42:$E$42,$G52,$H$42:$H$43)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I52" s="99"/>
       <c r="J52" s="98">
-        <f>SUMIF($E$42:$E$42,$G52,$J$42:$J$43)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17845,15 +17817,15 @@
       <c r="E53" s="131"/>
       <c r="F53" s="100"/>
       <c r="G53" s="65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H53" s="50">
-        <f>SUMIF($E$42:$E$42,$G53,$H$42:$H$43)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I53" s="99"/>
       <c r="J53" s="98">
-        <f>SUMIF($E$42:$E$42,$G53,$J$42:$J$43)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17863,15 +17835,15 @@
       <c r="E54" s="131"/>
       <c r="F54" s="100"/>
       <c r="G54" s="65" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H54" s="50">
-        <f>SUMIF($E$42:$E$42,$G54,$H$42:$H$43)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I54" s="99"/>
       <c r="J54" s="98">
-        <f>SUMIF($E$42:$E$42,$G54,$J$42:$J$43)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17900,7 +17872,7 @@
       <c r="C57" s="92"/>
       <c r="E57" s="131"/>
       <c r="F57" s="100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H57" s="61">
         <f>SUM(H45:H55)</f>
@@ -17912,17 +17884,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K58" s="86"/>
       <c r="L58" s="86"/>
     </row>
-    <row r="59" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="74" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="66"/>
       <c r="D59" s="210" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E59" s="66"/>
       <c r="F59" s="66"/>
@@ -17963,7 +17935,7 @@
       <c r="B65" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="276"/>
+      <c r="C65" s="262"/>
       <c r="D65" s="71"/>
       <c r="E65" s="28" t="s">
         <v>0</v>
@@ -17988,14 +17960,14 @@
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D67" s="72"/>
       <c r="E67" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I67" s="25" t="s">
         <v>27</v>
@@ -18007,9 +17979,9 @@
     </row>
     <row r="68" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C68" s="277"/>
+        <v>52</v>
+      </c>
+      <c r="C68" s="263"/>
       <c r="D68" s="73"/>
       <c r="E68" s="151"/>
       <c r="F68" s="242"/>
@@ -18034,17 +18006,17 @@
   </sheetData>
   <autoFilter ref="B41:J42" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="13">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H7:J7"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H7:J7"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H5:J5"/>
   </mergeCells>
@@ -18087,7 +18059,7 @@
     <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="71.42578125" style="7" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="24.140625" style="7" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" style="7" customWidth="1"/>
@@ -18146,11 +18118,11 @@
       <c r="D4" s="124"/>
       <c r="E4" s="124"/>
       <c r="F4" s="124"/>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
       <c r="K4" s="243"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -18158,11 +18130,11 @@
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
       <c r="F5" s="124"/>
-      <c r="H5" s="284" t="s">
+      <c r="H5" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="285"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
       <c r="K5" s="244"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -18173,41 +18145,41 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="124"/>
-      <c r="H6" s="271" t="s">
+      <c r="H6" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
       <c r="K6" s="245"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
       <c r="F7" s="124"/>
-      <c r="H7" s="266" t="s">
+      <c r="H7" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="288"/>
       <c r="K7" s="245"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
-      <c r="H8" s="265" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="H8" s="287" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
       <c r="K8" s="245"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -18218,11 +18190,11 @@
       <c r="D9" s="124"/>
       <c r="E9" s="124"/>
       <c r="F9" s="124"/>
-      <c r="H9" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
+      <c r="H9" s="287" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
       <c r="K9" s="245"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -18240,11 +18212,11 @@
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
-      <c r="H11" s="267" t="s">
+      <c r="H11" s="286" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="267"/>
-      <c r="J11" s="267"/>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
       <c r="K11" s="244"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -18253,29 +18225,29 @@
       </c>
       <c r="C12" s="121"/>
       <c r="D12" s="162" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="121"/>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
       <c r="K12" s="244"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" s="121"/>
       <c r="D13" s="119" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
       <c r="K13" s="246"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -18294,28 +18266,28 @@
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="118" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="106"/>
-      <c r="H15" s="287" t="s">
+      <c r="H15" s="296" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="263"/>
-      <c r="J15" s="288"/>
+      <c r="I15" s="297"/>
+      <c r="J15" s="298"/>
       <c r="K15" s="243"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="162"/>
       <c r="E16" s="106"/>
       <c r="G16" s="106"/>
-      <c r="H16" s="281" t="s">
+      <c r="H16" s="267" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="282" t="s">
+      <c r="J16" s="268" t="s">
         <v>33</v>
       </c>
       <c r="K16" s="247"/>
@@ -18374,7 +18346,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -18392,14 +18364,14 @@
       <c r="B21" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="264" t="s">
-        <v>205</v>
-      </c>
-      <c r="E21" s="264"/>
+      <c r="D21" s="290" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="290"/>
       <c r="F21" s="106"/>
       <c r="G21" s="105"/>
       <c r="H21" s="104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="103">
         <v>0.84</v>
@@ -18416,7 +18388,7 @@
       <c r="F22" s="106"/>
       <c r="G22" s="105"/>
       <c r="H22" s="104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="103">
         <v>0.79</v>
@@ -18431,7 +18403,7 @@
       <c r="F23" s="106"/>
       <c r="G23" s="105"/>
       <c r="H23" s="104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="103">
         <v>0.75</v>
@@ -18446,7 +18418,7 @@
       <c r="F24" s="106"/>
       <c r="G24" s="105"/>
       <c r="H24" s="104" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I24" s="103">
         <v>0.73</v>
@@ -18469,7 +18441,7 @@
       <c r="M25" s="120"/>
       <c r="N25" s="120"/>
     </row>
-    <row r="26" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="257" t="s">
         <v>11</v>
       </c>
@@ -18536,7 +18508,7 @@
         <v>36</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H30" s="50">
         <f>SUMIF($E$27:$E$27,$G30,$J$27:$J$28)</f>
@@ -18554,7 +18526,7 @@
       <c r="E31" s="65"/>
       <c r="F31" s="100"/>
       <c r="G31" s="65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H31" s="50">
         <f>SUMIF($E$27:$E$27,$G31,$J$27:$J$28)</f>
@@ -18562,7 +18534,7 @@
       </c>
       <c r="I31" s="99"/>
       <c r="J31" s="98" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -18589,7 +18561,7 @@
       <c r="C34" s="92"/>
       <c r="E34" s="65"/>
       <c r="F34" s="100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H34" s="61">
         <f>SUM(H30:H30)</f>
@@ -18613,15 +18585,15 @@
       <c r="J35" s="175"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="293"/>
-      <c r="C36" s="293"/>
-      <c r="D36" s="293"/>
-      <c r="E36" s="293"/>
-      <c r="F36" s="293"/>
-      <c r="G36" s="293"/>
-      <c r="H36" s="293"/>
-      <c r="I36" s="293"/>
-      <c r="J36" s="293"/>
+      <c r="B36" s="269"/>
+      <c r="C36" s="269"/>
+      <c r="D36" s="269"/>
+      <c r="E36" s="269"/>
+      <c r="F36" s="269"/>
+      <c r="G36" s="269"/>
+      <c r="H36" s="269"/>
+      <c r="I36" s="269"/>
+      <c r="J36" s="269"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="24" t="s">
@@ -18636,7 +18608,7 @@
       <c r="B39" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="276"/>
+      <c r="C39" s="262"/>
       <c r="D39" s="71"/>
       <c r="E39" s="28" t="s">
         <v>0</v>
@@ -18662,14 +18634,14 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D41" s="72"/>
       <c r="E41" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I41" s="25" t="s">
         <v>27</v>
@@ -18681,15 +18653,15 @@
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="277"/>
+        <v>52</v>
+      </c>
+      <c r="C42" s="263"/>
       <c r="D42" s="73"/>
       <c r="E42" s="151" t="s">
         <v>19</v>
       </c>
       <c r="F42" s="240" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G42" s="240"/>
       <c r="H42" s="149"/>
@@ -18797,17 +18769,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{E37166C1-92E9-404D-AA21-1E50DAE681D3}"/>
@@ -18844,7 +18816,7 @@
     <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="80.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="94.140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="22.140625" style="7" customWidth="1"/>
@@ -18902,11 +18874,11 @@
       <c r="D4" s="124"/>
       <c r="E4" s="124"/>
       <c r="F4" s="124"/>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
       <c r="K4" s="124"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -18914,11 +18886,11 @@
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
       <c r="F5" s="128"/>
-      <c r="H5" s="284" t="s">
+      <c r="H5" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="285"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
       <c r="K5" s="128"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -18929,41 +18901,41 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="124"/>
-      <c r="H6" s="271" t="s">
+      <c r="H6" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
       <c r="K6" s="124"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
       <c r="F7" s="124"/>
-      <c r="H7" s="266" t="s">
+      <c r="H7" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="288"/>
       <c r="K7" s="124"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
-      <c r="H8" s="265" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="H8" s="287" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
       <c r="K8" s="120"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -18974,11 +18946,11 @@
       <c r="D9" s="124"/>
       <c r="E9" s="124"/>
       <c r="F9" s="124"/>
-      <c r="H9" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
+      <c r="H9" s="287" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
       <c r="K9" s="124"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -18996,11 +18968,11 @@
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
-      <c r="H11" s="267" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="267"/>
-      <c r="J11" s="267"/>
+      <c r="H11" s="286" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
       <c r="K11" s="121"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -19009,35 +18981,35 @@
       </c>
       <c r="C12" s="121"/>
       <c r="D12" s="119" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" s="119"/>
       <c r="F12" s="119"/>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
       <c r="K12" s="119"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" s="121"/>
       <c r="D13" s="122" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E13" s="122"/>
       <c r="F13" s="122"/>
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
       <c r="K13" s="122"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="121"/>
       <c r="D14" s="119" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14" s="119"/>
       <c r="F14" s="119"/>
@@ -19055,28 +19027,28 @@
       <c r="D15" s="119"/>
       <c r="E15" s="119"/>
       <c r="F15" s="119"/>
-      <c r="H15" s="289" t="s">
+      <c r="H15" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="290"/>
-      <c r="J15" s="291"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="283"/>
       <c r="K15" s="119"/>
       <c r="N15" s="63"/>
       <c r="O15" s="64"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D16" s="76" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="118"/>
       <c r="F16" s="118"/>
-      <c r="H16" s="281" t="s">
+      <c r="H16" s="267" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="282" t="s">
+      <c r="J16" s="268" t="s">
         <v>33</v>
       </c>
       <c r="K16" s="118"/>
@@ -19147,7 +19119,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E20" s="113"/>
       <c r="F20" s="113"/>
@@ -19170,13 +19142,13 @@
         <v>19</v>
       </c>
       <c r="D21" s="113" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E21" s="113"/>
       <c r="F21" s="113"/>
       <c r="G21" s="105"/>
       <c r="H21" s="104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="103">
         <v>0.71000000000000008</v>
@@ -19196,7 +19168,7 @@
       <c r="F22" s="46"/>
       <c r="G22" s="105"/>
       <c r="H22" s="104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="103">
         <v>0.6100000000000001</v>
@@ -19215,7 +19187,7 @@
       <c r="F23" s="46"/>
       <c r="G23" s="105"/>
       <c r="H23" s="104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="103">
         <v>0.58000000000000007</v>
@@ -19234,7 +19206,7 @@
       <c r="F24" s="46"/>
       <c r="G24" s="105"/>
       <c r="H24" s="104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24" s="103">
         <v>0.55000000000000004</v>
@@ -19253,7 +19225,7 @@
       <c r="F25" s="46"/>
       <c r="G25" s="24"/>
       <c r="H25" s="109" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I25" s="108">
         <v>0.5</v>
@@ -19325,7 +19297,7 @@
         <v>36</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H31" s="50"/>
       <c r="I31" s="99"/>
@@ -19339,7 +19311,7 @@
       <c r="E32" s="92"/>
       <c r="F32" s="61"/>
       <c r="G32" s="65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H32" s="50"/>
       <c r="I32" s="99"/>
@@ -19353,7 +19325,7 @@
       <c r="E33" s="92"/>
       <c r="F33" s="61"/>
       <c r="G33" s="65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H33" s="50"/>
       <c r="I33" s="99"/>
@@ -19367,7 +19339,7 @@
       <c r="E34" s="92"/>
       <c r="F34" s="61"/>
       <c r="G34" s="65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H34" s="50"/>
       <c r="I34" s="99"/>
@@ -19382,7 +19354,7 @@
       <c r="E35" s="92"/>
       <c r="F35" s="61"/>
       <c r="G35" s="65" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H35" s="50"/>
       <c r="I35" s="99"/>
@@ -19418,7 +19390,7 @@
       <c r="D38" s="59"/>
       <c r="E38" s="59"/>
       <c r="F38" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G38" s="61"/>
       <c r="H38" s="61"/>
@@ -19471,7 +19443,7 @@
         <v>26</v>
       </c>
       <c r="I44" s="65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J44" s="62">
         <f>J30</f>
@@ -19481,7 +19453,7 @@
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="24"/>
       <c r="I45" s="65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J45" s="62">
         <f>J31</f>
@@ -19490,7 +19462,7 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I46" s="65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J46" s="62">
         <f>J32</f>
@@ -19499,7 +19471,7 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I47" s="65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J47" s="62">
         <f>J33</f>
@@ -19515,7 +19487,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="65" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J48" s="62">
         <f>J34</f>
@@ -19526,7 +19498,7 @@
       <c r="B49" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="276"/>
+      <c r="C49" s="262"/>
       <c r="D49" s="71"/>
       <c r="E49" s="216" t="s">
         <v>4</v>
@@ -19543,16 +19515,16 @@
       </c>
       <c r="D50" s="72"/>
       <c r="E50" s="216" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J50" s="59"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D51" s="72"/>
       <c r="F51" s="84"/>
@@ -19565,25 +19537,25 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="277"/>
+        <v>52</v>
+      </c>
+      <c r="C52" s="263"/>
       <c r="D52" s="73"/>
       <c r="E52" s="19"/>
       <c r="F52" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H13:J13"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H13:J13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{B3650EA6-7FA2-4CCD-B02F-1F1E2220A23D}"/>
@@ -19611,7 +19583,7 @@
   </sheetPr>
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -19620,7 +19592,7 @@
     <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="78.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.7109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" style="7" customWidth="1"/>
     <col min="7" max="7" width="24" style="7" customWidth="1"/>
@@ -19677,21 +19649,21 @@
       <c r="C4" s="124"/>
       <c r="D4" s="124"/>
       <c r="E4" s="124"/>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="128"/>
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
-      <c r="H5" s="284" t="s">
+      <c r="H5" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="285"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="127" t="s">
@@ -19700,37 +19672,37 @@
       <c r="C6" s="124"/>
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
-      <c r="H6" s="271" t="s">
+      <c r="H6" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
-      <c r="H7" s="266" t="s">
+      <c r="H7" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="288"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
-      <c r="H8" s="265" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="H8" s="287" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -19739,11 +19711,11 @@
       <c r="C9" s="120"/>
       <c r="D9" s="124"/>
       <c r="E9" s="124"/>
-      <c r="H9" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
+      <c r="H9" s="287" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="125" t="s">
@@ -19757,11 +19729,11 @@
       <c r="C11" s="123"/>
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
-      <c r="H11" s="267" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="267"/>
-      <c r="J11" s="267"/>
+      <c r="H11" s="286" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
       <c r="N11" s="111"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -19770,35 +19742,35 @@
       </c>
       <c r="C12" s="121"/>
       <c r="D12" s="119" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E12" s="121"/>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
       <c r="N12" s="61"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" s="121"/>
       <c r="D13" s="119" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E13" s="121"/>
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="121"/>
       <c r="D14" s="119"/>
       <c r="E14" s="106"/>
-      <c r="H14" s="279"/>
-      <c r="I14" s="279"/>
-      <c r="J14" s="279"/>
+      <c r="H14" s="265"/>
+      <c r="I14" s="265"/>
+      <c r="J14" s="265"/>
       <c r="M14" s="63"/>
       <c r="N14" s="94"/>
       <c r="O14" s="93"/>
@@ -19809,27 +19781,27 @@
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="119" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E15" s="106"/>
-      <c r="H15" s="263" t="s">
+      <c r="H15" s="297" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="263"/>
-      <c r="J15" s="263"/>
+      <c r="I15" s="297"/>
+      <c r="J15" s="297"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D16" s="76" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F16" s="106"/>
-      <c r="H16" s="281" t="s">
+      <c r="H16" s="267" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="282" t="s">
+      <c r="J16" s="268" t="s">
         <v>33</v>
       </c>
       <c r="M16" s="64"/>
@@ -19888,7 +19860,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="233"/>
@@ -19907,13 +19879,13 @@
       <c r="B21" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="264" t="s">
-        <v>235</v>
-      </c>
-      <c r="E21" s="264"/>
+      <c r="D21" s="290" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="290"/>
       <c r="F21" s="233"/>
       <c r="H21" s="104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="103">
         <v>0.71000000000000008</v>
@@ -19931,7 +19903,7 @@
       <c r="E22" s="106"/>
       <c r="F22" s="24"/>
       <c r="H22" s="256" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="108">
         <v>0.6100000000000001</v>
@@ -19946,7 +19918,7 @@
       <c r="E23" s="106"/>
       <c r="F23" s="105"/>
       <c r="H23" s="104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="103">
         <v>0.58000000000000007</v>
@@ -19962,7 +19934,7 @@
       <c r="E24" s="106"/>
       <c r="F24" s="105"/>
       <c r="H24" s="104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24" s="103">
         <v>0.55000000000000004</v>
@@ -19979,7 +19951,7 @@
       <c r="E25" s="106"/>
       <c r="F25" s="255"/>
       <c r="H25" s="104" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I25" s="103">
         <v>0.5</v>
@@ -20033,7 +20005,7 @@
       <c r="J27" s="260" t="s">
         <v>5</v>
       </c>
-      <c r="K27" s="275"/>
+      <c r="K27" s="261"/>
       <c r="O27" s="61"/>
       <c r="P27" s="94"/>
       <c r="Q27" s="93"/>
@@ -20077,15 +20049,15 @@
         <v>36</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H31" s="50">
-        <f>SUMIF($E$28:$E$29,$G31,$I$28:$I$29)</f>
+        <f t="shared" ref="H31:H45" si="0">SUMIF($E$28:$E$29,$G31,$I$28:$I$29)</f>
         <v>0</v>
       </c>
       <c r="I31" s="99"/>
       <c r="J31" s="98">
-        <f>SUMIF($E$28:$E$29,$G31,$K$28:$K$29)</f>
+        <f t="shared" ref="J31:J45" si="1">SUMIF($E$28:$E$29,$G31,$K$28:$K$29)</f>
         <v>0</v>
       </c>
     </row>
@@ -20094,15 +20066,15 @@
       <c r="C32" s="92"/>
       <c r="F32" s="100"/>
       <c r="G32" s="65" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H32" s="50">
-        <f>SUMIF($E$28:$E$29,$G32,$I$28:$I$29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I32" s="99"/>
       <c r="J32" s="98">
-        <f>SUMIF($E$28:$E$29,$G32,$K$28:$K$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20111,15 +20083,15 @@
       <c r="C33" s="92"/>
       <c r="F33" s="100"/>
       <c r="G33" s="65" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H33" s="50">
-        <f>SUMIF($E$28:$E$29,$G33,$I$28:$I$29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I33" s="99"/>
       <c r="J33" s="98">
-        <f>SUMIF($E$28:$E$29,$G33,$K$28:$K$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20128,15 +20100,15 @@
       <c r="C34" s="92"/>
       <c r="F34" s="100"/>
       <c r="G34" s="65" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H34" s="50">
-        <f>SUMIF($E$28:$E$29,$G34,$I$28:$I$29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I34" s="99"/>
       <c r="J34" s="98">
-        <f>SUMIF($E$28:$E$29,$G34,$K$28:$K$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20145,15 +20117,15 @@
       <c r="C35" s="92"/>
       <c r="F35" s="100"/>
       <c r="G35" s="65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H35" s="50">
-        <f>SUMIF($E$28:$E$29,$G35,$I$28:$I$29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I35" s="99"/>
       <c r="J35" s="98">
-        <f>SUMIF($E$28:$E$29,$G35,$K$28:$K$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20162,15 +20134,15 @@
       <c r="C36" s="92"/>
       <c r="F36" s="100"/>
       <c r="G36" s="65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H36" s="50">
-        <f>SUMIF($E$28:$E$29,$G36,$I$28:$I$29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I36" s="99"/>
       <c r="J36" s="98">
-        <f>SUMIF($E$28:$E$29,$G36,$K$28:$K$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20179,15 +20151,15 @@
       <c r="C37" s="92"/>
       <c r="F37" s="100"/>
       <c r="G37" s="65" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H37" s="50">
-        <f>SUMIF($E$28:$E$29,$G37,$I$28:$I$29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I37" s="99"/>
       <c r="J37" s="98">
-        <f>SUMIF($E$28:$E$29,$G37,$K$28:$K$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20196,15 +20168,15 @@
       <c r="C38" s="92"/>
       <c r="F38" s="100"/>
       <c r="G38" s="65" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H38" s="50">
-        <f>SUMIF($E$28:$E$29,$G38,$I$28:$I$29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I38" s="99"/>
       <c r="J38" s="98">
-        <f>SUMIF($E$28:$E$29,$G38,$K$28:$K$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20213,15 +20185,15 @@
       <c r="C39" s="92"/>
       <c r="F39" s="100"/>
       <c r="G39" s="65" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H39" s="50">
-        <f>SUMIF($E$28:$E$29,$G39,$I$28:$I$29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I39" s="99"/>
       <c r="J39" s="98">
-        <f>SUMIF($E$28:$E$29,$G39,$K$28:$K$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20230,15 +20202,15 @@
       <c r="C40" s="92"/>
       <c r="F40" s="100"/>
       <c r="G40" s="65" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H40" s="50">
-        <f>SUMIF($E$28:$E$29,$G40,$I$28:$I$29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I40" s="99"/>
       <c r="J40" s="98">
-        <f>SUMIF($E$28:$E$29,$G40,$K$28:$K$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20247,15 +20219,15 @@
       <c r="C41" s="92"/>
       <c r="F41" s="100"/>
       <c r="G41" s="65" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H41" s="50">
-        <f>SUMIF($E$28:$E$29,$G41,$I$28:$I$29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I41" s="99"/>
       <c r="J41" s="98">
-        <f>SUMIF($E$28:$E$29,$G41,$K$28:$K$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20264,15 +20236,15 @@
       <c r="C42" s="92"/>
       <c r="F42" s="100"/>
       <c r="G42" s="65" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H42" s="50">
-        <f>SUMIF($E$28:$E$29,$G42,$I$28:$I$29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I42" s="99"/>
       <c r="J42" s="98">
-        <f>SUMIF($E$28:$E$29,$G42,$K$28:$K$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20281,15 +20253,15 @@
       <c r="C43" s="92"/>
       <c r="F43" s="100"/>
       <c r="G43" s="65" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H43" s="50">
-        <f>SUMIF($E$28:$E$29,$G43,$I$28:$I$29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I43" s="99"/>
       <c r="J43" s="98">
-        <f>SUMIF($E$28:$E$29,$G43,$K$28:$K$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20298,15 +20270,15 @@
       <c r="C44" s="92"/>
       <c r="F44" s="100"/>
       <c r="G44" s="65" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H44" s="50">
-        <f>SUMIF($E$28:$E$29,$G44,$I$28:$I$29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I44" s="99"/>
       <c r="J44" s="98">
-        <f>SUMIF($E$28:$E$29,$G44,$K$28:$K$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20315,15 +20287,15 @@
       <c r="C45" s="92"/>
       <c r="F45" s="100"/>
       <c r="G45" s="65" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H45" s="50">
-        <f>SUMIF($E$28:$E$29,$G45,$I$28:$I$29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I45" s="99"/>
       <c r="J45" s="98">
-        <f>SUMIF($E$28:$E$29,$G45,$K$28:$K$29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20349,7 +20321,7 @@
       <c r="C48" s="92"/>
       <c r="E48" s="131"/>
       <c r="F48" s="100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H48" s="61">
         <f>SUM(H31:H45)</f>
@@ -20432,7 +20404,7 @@
       <c r="B58" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="276"/>
+      <c r="C58" s="262"/>
       <c r="D58" s="71"/>
       <c r="E58" s="28" t="s">
         <v>0</v>
@@ -20462,14 +20434,14 @@
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B60" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D60" s="72"/>
       <c r="E60" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I60" s="25" t="s">
         <v>27</v>
@@ -20484,9 +20456,9 @@
     </row>
     <row r="61" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="277"/>
+        <v>52</v>
+      </c>
+      <c r="C61" s="263"/>
       <c r="D61" s="73"/>
       <c r="E61" s="151"/>
       <c r="F61" s="149"/>
@@ -20511,17 +20483,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{111A9610-5FCF-4A87-9235-68F71288FEAC}"/>
@@ -20548,7 +20520,7 @@
   <dimension ref="B1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J2"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20608,7 +20580,7 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
@@ -20617,7 +20589,7 @@
     <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="83.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="94.42578125" style="7" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="15" style="7" customWidth="1"/>
@@ -20674,22 +20646,22 @@
       <c r="D4" s="124"/>
       <c r="E4" s="124"/>
       <c r="F4" s="124"/>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="128"/>
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
       <c r="F5" s="124"/>
-      <c r="H5" s="284" t="s">
+      <c r="H5" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="285"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="127" t="s">
@@ -20699,39 +20671,39 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="124"/>
-      <c r="H6" s="271" t="s">
+      <c r="H6" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
       <c r="F7" s="124"/>
-      <c r="H7" s="266" t="s">
+      <c r="H7" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="288"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
-      <c r="H8" s="265" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="H8" s="287" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -20741,11 +20713,11 @@
       <c r="D9" s="124"/>
       <c r="E9" s="124"/>
       <c r="F9" s="124"/>
-      <c r="H9" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
+      <c r="H9" s="287" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="125" t="s">
@@ -20761,11 +20733,11 @@
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
-      <c r="H11" s="267" t="s">
+      <c r="H11" s="286" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="267"/>
-      <c r="J11" s="267"/>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="115" t="s">
@@ -20773,33 +20745,33 @@
       </c>
       <c r="C12" s="121"/>
       <c r="D12" s="101" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="121"/>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="121"/>
       <c r="D13" s="101" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="121"/>
       <c r="D14" s="101" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="106"/>
@@ -20813,30 +20785,30 @@
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="101" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="106"/>
-      <c r="H15" s="289" t="s">
+      <c r="H15" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="290"/>
-      <c r="J15" s="291"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="283"/>
       <c r="M15" s="61"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D16" s="118" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E16" s="106"/>
       <c r="F16" s="106"/>
-      <c r="H16" s="281" t="s">
+      <c r="H16" s="267" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="282" t="s">
+      <c r="J16" s="268" t="s">
         <v>33</v>
       </c>
       <c r="P16" s="61"/>
@@ -20898,7 +20870,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -20917,13 +20889,13 @@
         <v>19</v>
       </c>
       <c r="D21" s="113" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E21" s="106"/>
       <c r="F21" s="106"/>
       <c r="G21" s="105"/>
       <c r="H21" s="104" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I21" s="103">
         <v>0.71</v>
@@ -20940,7 +20912,7 @@
       <c r="F22" s="106"/>
       <c r="G22" s="105"/>
       <c r="H22" s="104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="103">
         <v>0.61</v>
@@ -20955,7 +20927,7 @@
       <c r="F23" s="106"/>
       <c r="G23" s="105"/>
       <c r="H23" s="104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="103">
         <v>0.57999999999999996</v>
@@ -20971,7 +20943,7 @@
       <c r="F24" s="106"/>
       <c r="G24" s="105"/>
       <c r="H24" s="104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24" s="103">
         <v>0.55000000000000004</v>
@@ -20986,7 +20958,7 @@
       <c r="F25" s="106"/>
       <c r="G25" s="105"/>
       <c r="H25" s="104" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I25" s="103">
         <v>0.5</v>
@@ -21082,7 +21054,7 @@
         <v>36</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H31" s="50"/>
       <c r="I31" s="99"/>
@@ -21093,7 +21065,7 @@
       <c r="C32" s="92"/>
       <c r="F32" s="100"/>
       <c r="G32" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H32" s="50"/>
       <c r="I32" s="99"/>
@@ -21104,7 +21076,7 @@
       <c r="C33" s="92"/>
       <c r="F33" s="100"/>
       <c r="G33" s="65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H33" s="50"/>
       <c r="I33" s="99"/>
@@ -21115,7 +21087,7 @@
       <c r="C34" s="92"/>
       <c r="F34" s="100"/>
       <c r="G34" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H34" s="50"/>
       <c r="I34" s="99"/>
@@ -21126,7 +21098,7 @@
       <c r="C35" s="92"/>
       <c r="F35" s="100"/>
       <c r="G35" s="65" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H35" s="50"/>
       <c r="I35" s="99"/>
@@ -21137,7 +21109,7 @@
       <c r="C36" s="92"/>
       <c r="F36" s="100"/>
       <c r="G36" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H36" s="50"/>
       <c r="I36" s="99"/>
@@ -21148,7 +21120,7 @@
       <c r="C37" s="92"/>
       <c r="F37" s="100"/>
       <c r="G37" s="65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H37" s="50"/>
       <c r="I37" s="99"/>
@@ -21159,7 +21131,7 @@
       <c r="C38" s="92"/>
       <c r="F38" s="100"/>
       <c r="G38" s="65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H38" s="133"/>
       <c r="I38" s="99"/>
@@ -21184,7 +21156,7 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F41" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G41" s="61"/>
       <c r="H41" s="61">
@@ -21237,74 +21209,74 @@
         <v>26</v>
       </c>
       <c r="I47" s="216" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J47" s="62">
-        <f>I33</f>
+        <f t="shared" ref="J47:J54" si="0">I33</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I48" s="216" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J48" s="62">
-        <f>I34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I49" s="216" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J49" s="62">
-        <f>I35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I50" s="216" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J50" s="62">
-        <f>I36</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I51" s="216" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J51" s="62">
-        <f>I37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G52" s="18"/>
       <c r="I52" s="216" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J52" s="62">
-        <f>I38</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I53" s="216" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J53" s="62">
-        <f>I39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I54" s="216" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J54" s="62">
-        <f>I40</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -21312,7 +21284,7 @@
       <c r="B55" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="276"/>
+      <c r="C55" s="262"/>
       <c r="D55" s="71"/>
       <c r="E55" s="28" t="s">
         <v>0</v>
@@ -21339,11 +21311,11 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D57" s="72"/>
       <c r="E57" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F57" s="27" t="str">
         <f>D20</f>
@@ -21356,9 +21328,9 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="277"/>
+        <v>52</v>
+      </c>
+      <c r="C58" s="263"/>
       <c r="D58" s="73"/>
       <c r="I58" s="25"/>
     </row>
@@ -21411,7 +21383,7 @@
     <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="85.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.5703125" style="7" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
@@ -21471,22 +21443,22 @@
       <c r="D4" s="124"/>
       <c r="E4" s="124"/>
       <c r="F4" s="124"/>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C5" s="128"/>
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
       <c r="F5" s="124"/>
-      <c r="H5" s="284" t="s">
+      <c r="H5" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="285"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="127" t="s">
@@ -21496,39 +21468,39 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="124"/>
-      <c r="H6" s="271" t="s">
+      <c r="H6" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
       <c r="F7" s="124"/>
-      <c r="H7" s="266" t="s">
+      <c r="H7" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="288"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
-      <c r="H8" s="265" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="H8" s="287" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -21538,11 +21510,11 @@
       <c r="D9" s="124"/>
       <c r="E9" s="124"/>
       <c r="F9" s="124"/>
-      <c r="H9" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
+      <c r="H9" s="287" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="125" t="s">
@@ -21559,11 +21531,11 @@
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
-      <c r="H11" s="267" t="s">
+      <c r="H11" s="286" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="267"/>
-      <c r="J11" s="267"/>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
       <c r="O11" s="63"/>
       <c r="Q11" s="61"/>
     </row>
@@ -21573,28 +21545,28 @@
       </c>
       <c r="C12" s="121"/>
       <c r="D12" s="119" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="121"/>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C13" s="121"/>
       <c r="D13" s="119" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
       <c r="O13" s="63"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -21614,27 +21586,27 @@
       <c r="D15" s="119"/>
       <c r="E15" s="106"/>
       <c r="F15" s="106"/>
-      <c r="H15" s="289" t="s">
+      <c r="H15" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="290"/>
-      <c r="J15" s="291"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="283"/>
       <c r="O15" s="64"/>
       <c r="Q15" s="61"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D16" s="118" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E16" s="106"/>
       <c r="F16" s="106"/>
-      <c r="H16" s="281" t="s">
+      <c r="H16" s="267" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="282" t="s">
+      <c r="J16" s="268" t="s">
         <v>33</v>
       </c>
       <c r="M16" s="63"/>
@@ -21705,7 +21677,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -21726,13 +21698,13 @@
         <v>19</v>
       </c>
       <c r="D21" s="113" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E21" s="106"/>
       <c r="F21" s="106"/>
       <c r="G21" s="105"/>
       <c r="H21" s="104" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I21" s="103">
         <v>0.71</v>
@@ -21752,7 +21724,7 @@
       <c r="F22" s="106"/>
       <c r="G22" s="105"/>
       <c r="H22" s="104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="103">
         <v>0.61</v>
@@ -21770,7 +21742,7 @@
       <c r="F23" s="106"/>
       <c r="G23" s="105"/>
       <c r="H23" s="104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="103">
         <v>0.57999999999999996</v>
@@ -21788,7 +21760,7 @@
       <c r="F24" s="106"/>
       <c r="G24" s="105"/>
       <c r="H24" s="104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24" s="103">
         <v>0.55000000000000004</v>
@@ -21806,7 +21778,7 @@
       <c r="F25" s="106"/>
       <c r="G25" s="105"/>
       <c r="H25" s="104" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I25" s="103">
         <v>0.5</v>
@@ -21900,7 +21872,7 @@
         <v>36</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I31" s="99"/>
       <c r="J31" s="98"/>
@@ -21913,7 +21885,7 @@
       <c r="E32" s="100"/>
       <c r="F32" s="100"/>
       <c r="G32" s="65" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I32" s="99"/>
       <c r="J32" s="98"/>
@@ -21946,7 +21918,7 @@
       <c r="D35" s="59"/>
       <c r="E35" s="59"/>
       <c r="F35" s="100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G35" s="61"/>
       <c r="H35" s="50">
@@ -22022,7 +21994,7 @@
       <c r="G42" s="50"/>
       <c r="H42" s="7"/>
       <c r="I42" s="65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J42" s="86">
         <f>J35</f>
@@ -22043,7 +22015,7 @@
       <c r="B45" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="276"/>
+      <c r="C45" s="262"/>
       <c r="D45" s="71"/>
       <c r="E45" s="28" t="s">
         <v>0</v>
@@ -22072,14 +22044,14 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D47" s="72"/>
       <c r="E47" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G47" s="50"/>
       <c r="H47" s="7"/>
@@ -22093,9 +22065,9 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="277"/>
+        <v>52</v>
+      </c>
+      <c r="C48" s="263"/>
       <c r="D48" s="73"/>
       <c r="E48" s="29" t="s">
         <v>19</v>
@@ -22244,7 +22216,7 @@
     <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="35.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.42578125" style="7" customWidth="1"/>
     <col min="5" max="5" width="19" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="7" bestFit="1" customWidth="1"/>
@@ -22298,22 +22270,22 @@
       <c r="D4" s="124"/>
       <c r="E4" s="124"/>
       <c r="F4" s="250"/>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="128"/>
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
       <c r="F5" s="245"/>
-      <c r="H5" s="284" t="s">
+      <c r="H5" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="285"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="127" t="s">
@@ -22323,39 +22295,39 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="245"/>
-      <c r="H6" s="271" t="s">
+      <c r="H6" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
       <c r="F7" s="245"/>
-      <c r="H7" s="266" t="s">
+      <c r="H7" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="288"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
       <c r="F8" s="245"/>
-      <c r="H8" s="265" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="H8" s="287" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -22365,11 +22337,11 @@
       <c r="D9" s="124"/>
       <c r="E9" s="124"/>
       <c r="F9" s="245"/>
-      <c r="H9" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
+      <c r="H9" s="287" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="125" t="s">
@@ -22385,11 +22357,11 @@
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
       <c r="F11" s="245"/>
-      <c r="H11" s="267" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="267"/>
-      <c r="J11" s="267"/>
+      <c r="H11" s="286" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="115" t="s">
@@ -22397,28 +22369,28 @@
       </c>
       <c r="C12" s="121"/>
       <c r="D12" s="162" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="245"/>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="121"/>
       <c r="D13" s="162" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="246"/>
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="121"/>
@@ -22435,29 +22407,29 @@
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="119" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="250"/>
-      <c r="H15" s="289" t="s">
+      <c r="H15" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="290"/>
-      <c r="J15" s="291"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="283"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="118" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E16" s="106"/>
       <c r="F16" s="41"/>
-      <c r="H16" s="281" t="s">
+      <c r="H16" s="267" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="282" t="s">
+      <c r="J16" s="268" t="s">
         <v>33</v>
       </c>
     </row>
@@ -22512,7 +22484,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="41"/>
@@ -22529,14 +22501,14 @@
       <c r="B21" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="264" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="264"/>
+      <c r="D21" s="290" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="290"/>
       <c r="F21" s="41"/>
       <c r="G21" s="105"/>
       <c r="H21" s="104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="103">
         <v>1.1299999999999997</v>
@@ -22552,7 +22524,7 @@
       <c r="F22" s="41"/>
       <c r="G22" s="105"/>
       <c r="H22" s="104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="103">
         <v>1.0599999999999996</v>
@@ -22566,7 +22538,7 @@
       <c r="F23" s="41"/>
       <c r="G23" s="105"/>
       <c r="H23" s="104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="103">
         <v>1.0299999999999996</v>
@@ -22580,7 +22552,7 @@
       <c r="F24" s="41"/>
       <c r="G24" s="105"/>
       <c r="H24" s="104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24" s="103">
         <v>0.98999999999999955</v>
@@ -22594,7 +22566,7 @@
       <c r="F25" s="41"/>
       <c r="G25" s="105"/>
       <c r="H25" s="104" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I25" s="103">
         <v>0.9399999999999995</v>
@@ -22613,7 +22585,7 @@
       <c r="K26" s="120"/>
       <c r="L26" s="160"/>
     </row>
-    <row r="27" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="257" t="s">
         <v>11</v>
       </c>
@@ -22676,7 +22648,7 @@
         <v>36</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H31" s="50"/>
       <c r="I31" s="99"/>
@@ -22688,7 +22660,7 @@
       <c r="E32" s="65"/>
       <c r="F32" s="100"/>
       <c r="G32" s="65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H32" s="50"/>
       <c r="I32" s="99"/>
@@ -22718,7 +22690,7 @@
       <c r="C35" s="92"/>
       <c r="E35" s="65"/>
       <c r="F35" s="100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H35" s="61"/>
       <c r="I35" s="94"/>
@@ -22796,7 +22768,7 @@
       <c r="B43" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="276"/>
+      <c r="C43" s="262"/>
       <c r="D43" s="71"/>
       <c r="E43" s="28" t="s">
         <v>0</v>
@@ -22821,11 +22793,11 @@
     </row>
     <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D45" s="72"/>
       <c r="E45" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F45" s="27" t="str">
         <f>D20</f>
@@ -22843,9 +22815,9 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="277"/>
+        <v>52</v>
+      </c>
+      <c r="C46" s="263"/>
       <c r="D46" s="73"/>
       <c r="E46" s="151" t="s">
         <v>19</v>
@@ -22859,17 +22831,17 @@
   </sheetData>
   <autoFilter ref="B27:J28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{932E3038-D5FE-4469-A77C-2D7A36D53B2C}"/>
@@ -22906,7 +22878,7 @@
     <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="57.42578125" style="7" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="7" customWidth="1"/>
@@ -22961,22 +22933,22 @@
       <c r="D4" s="124"/>
       <c r="E4" s="124"/>
       <c r="F4" s="124"/>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="128"/>
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
       <c r="F5" s="124"/>
-      <c r="H5" s="284" t="s">
+      <c r="H5" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="285"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="127" t="s">
@@ -22986,39 +22958,39 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="124"/>
-      <c r="H6" s="271" t="s">
+      <c r="H6" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
       <c r="F7" s="124"/>
-      <c r="H7" s="266" t="s">
+      <c r="H7" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="288"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
-      <c r="H8" s="265" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="H8" s="287" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -23028,11 +23000,11 @@
       <c r="D9" s="124"/>
       <c r="E9" s="124"/>
       <c r="F9" s="124"/>
-      <c r="H9" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
+      <c r="H9" s="287" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="125" t="s">
@@ -23048,11 +23020,11 @@
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
-      <c r="H11" s="267" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="267"/>
-      <c r="J11" s="267"/>
+      <c r="H11" s="286" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="115" t="s">
@@ -23060,33 +23032,33 @@
       </c>
       <c r="C12" s="121"/>
       <c r="D12" s="162" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="121"/>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" s="121"/>
       <c r="D13" s="119" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="121"/>
       <c r="D14" s="162" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="106"/>
@@ -23100,30 +23072,30 @@
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="162" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="106"/>
-      <c r="H15" s="289" t="s">
+      <c r="H15" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="290"/>
-      <c r="J15" s="291"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="283"/>
       <c r="M15" s="63"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D16" s="162" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E16" s="106"/>
       <c r="F16" s="106"/>
-      <c r="H16" s="281" t="s">
+      <c r="H16" s="267" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="282" t="s">
+      <c r="J16" s="268" t="s">
         <v>33</v>
       </c>
       <c r="M16" s="63"/>
@@ -23131,7 +23103,7 @@
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C17" s="106"/>
       <c r="D17" s="76" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E17" s="106"/>
       <c r="F17" s="106"/>
@@ -23187,7 +23159,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -23205,14 +23177,14 @@
       <c r="B21" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="264" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="264"/>
+      <c r="D21" s="290" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="290"/>
       <c r="F21" s="106"/>
       <c r="G21" s="105"/>
       <c r="H21" s="104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="103">
         <v>0.71</v>
@@ -23229,7 +23201,7 @@
       <c r="F22" s="106"/>
       <c r="G22" s="105"/>
       <c r="H22" s="104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="103">
         <v>0.61</v>
@@ -23243,7 +23215,7 @@
       <c r="F23" s="106"/>
       <c r="G23" s="105"/>
       <c r="H23" s="104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="103">
         <v>0.57999999999999996</v>
@@ -23258,7 +23230,7 @@
       <c r="F24" s="106"/>
       <c r="G24" s="105"/>
       <c r="H24" s="104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24" s="103">
         <v>0.55000000000000004</v>
@@ -23273,7 +23245,7 @@
       <c r="F25" s="106"/>
       <c r="G25" s="105"/>
       <c r="H25" s="104" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I25" s="103">
         <v>0.5</v>
@@ -23353,7 +23325,7 @@
       <c r="B31" s="95"/>
       <c r="C31" s="92"/>
       <c r="F31" s="100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G31" s="65"/>
       <c r="H31" s="50"/>
@@ -23433,7 +23405,7 @@
       <c r="B40" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="276"/>
+      <c r="C40" s="262"/>
       <c r="D40" s="71"/>
       <c r="E40" s="28" t="s">
         <v>0</v>
@@ -23458,27 +23430,27 @@
     </row>
     <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42" s="72"/>
       <c r="E42" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G42" s="149"/>
       <c r="H42" s="163"/>
       <c r="I42" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J42" s="278"/>
+      <c r="J42" s="264"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="277"/>
+        <v>52</v>
+      </c>
+      <c r="C43" s="263"/>
       <c r="D43" s="73"/>
       <c r="E43" s="151" t="s">
         <v>19</v>
@@ -23584,17 +23556,17 @@
   </sheetData>
   <autoFilter ref="B27:J28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{9E8F8B6C-60B0-4E80-A427-65D8B1A90CA2}"/>
@@ -23631,7 +23603,7 @@
     <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="79.140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="7" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="7" customWidth="1"/>
@@ -23689,22 +23661,22 @@
       <c r="D4" s="124"/>
       <c r="E4" s="124"/>
       <c r="F4" s="124"/>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="128"/>
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
       <c r="F5" s="124"/>
-      <c r="H5" s="284" t="s">
+      <c r="H5" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="285"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="127" t="s">
@@ -23714,39 +23686,39 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="124"/>
-      <c r="H6" s="265" t="s">
+      <c r="H6" s="287" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="265"/>
-      <c r="J6" s="265"/>
+      <c r="I6" s="287"/>
+      <c r="J6" s="287"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
       <c r="F7" s="124"/>
-      <c r="H7" s="266" t="s">
+      <c r="H7" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="288"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
-      <c r="H8" s="265" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="H8" s="287" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -23756,11 +23728,11 @@
       <c r="D9" s="124"/>
       <c r="E9" s="124"/>
       <c r="F9" s="124"/>
-      <c r="H9" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
+      <c r="H9" s="287" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="125" t="s">
@@ -23770,20 +23742,20 @@
       <c r="D10" s="124"/>
       <c r="E10" s="124"/>
       <c r="F10" s="124"/>
-      <c r="H10" s="280"/>
-      <c r="I10" s="280"/>
-      <c r="J10" s="280"/>
+      <c r="H10" s="266"/>
+      <c r="I10" s="266"/>
+      <c r="J10" s="266"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="123"/>
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
-      <c r="H11" s="267" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="267"/>
-      <c r="J11" s="267"/>
+      <c r="H11" s="286" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="115" t="s">
@@ -23791,33 +23763,33 @@
       </c>
       <c r="C12" s="121"/>
       <c r="D12" s="119" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="121"/>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="121"/>
       <c r="D13" s="119" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="121"/>
       <c r="D14" s="76" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="106"/>
@@ -23831,29 +23803,29 @@
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="119" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="106"/>
-      <c r="H15" s="289" t="s">
+      <c r="H15" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="290"/>
-      <c r="J15" s="291"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="283"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="118" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E16" s="106"/>
       <c r="F16" s="106"/>
-      <c r="H16" s="281" t="s">
+      <c r="H16" s="267" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="282" t="s">
+      <c r="J16" s="268" t="s">
         <v>33</v>
       </c>
     </row>
@@ -23904,7 +23876,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -23921,13 +23893,13 @@
       <c r="B21" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="269" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="269"/>
+      <c r="D21" s="291" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="291"/>
       <c r="F21" s="167"/>
       <c r="H21" s="104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="103">
         <v>0.71000000000000008</v>
@@ -23935,11 +23907,11 @@
       <c r="J21" s="101"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D22" s="269"/>
-      <c r="E22" s="269"/>
+      <c r="D22" s="291"/>
+      <c r="E22" s="291"/>
       <c r="F22" s="167"/>
       <c r="H22" s="104" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I22" s="103">
         <v>0.6100000000000001</v>
@@ -23948,11 +23920,11 @@
       <c r="L22" s="61"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="269"/>
-      <c r="E23" s="269"/>
+      <c r="D23" s="291"/>
+      <c r="E23" s="291"/>
       <c r="F23" s="106"/>
       <c r="H23" s="104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="103">
         <v>0.58000000000000007</v>
@@ -23968,7 +23940,7 @@
       <c r="E24" s="106"/>
       <c r="F24" s="106"/>
       <c r="H24" s="104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24" s="103">
         <v>0.55000000000000004</v>
@@ -23983,7 +23955,7 @@
       <c r="E25" s="106"/>
       <c r="F25" s="106"/>
       <c r="H25" s="104" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I25" s="103">
         <v>0.5</v>
@@ -24051,7 +24023,7 @@
         <v>36</v>
       </c>
       <c r="G31" s="216" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H31" s="215"/>
       <c r="J31" s="98"/>
@@ -24060,7 +24032,7 @@
       <c r="D32" s="131"/>
       <c r="E32" s="100"/>
       <c r="G32" s="216" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H32" s="215"/>
       <c r="J32" s="98"/>
@@ -24069,7 +24041,7 @@
       <c r="D33" s="131"/>
       <c r="E33" s="100"/>
       <c r="G33" s="216" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H33" s="215"/>
       <c r="J33" s="98"/>
@@ -24078,7 +24050,7 @@
       <c r="D34" s="131"/>
       <c r="E34" s="100"/>
       <c r="G34" s="216" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H34" s="215"/>
       <c r="J34" s="98"/>
@@ -24087,7 +24059,7 @@
       <c r="D35" s="131"/>
       <c r="E35" s="100"/>
       <c r="G35" s="216" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H35" s="215"/>
       <c r="J35" s="98"/>
@@ -24096,7 +24068,7 @@
       <c r="D36" s="131"/>
       <c r="E36" s="100"/>
       <c r="G36" s="216" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H36" s="215"/>
       <c r="J36" s="98"/>
@@ -24105,7 +24077,7 @@
       <c r="D37" s="131"/>
       <c r="E37" s="100"/>
       <c r="G37" s="216" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H37" s="215"/>
       <c r="J37" s="98"/>
@@ -24114,7 +24086,7 @@
       <c r="D38" s="131"/>
       <c r="E38" s="100"/>
       <c r="G38" s="216" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H38" s="215"/>
       <c r="J38" s="98"/>
@@ -24123,7 +24095,7 @@
       <c r="D39" s="131"/>
       <c r="E39" s="100"/>
       <c r="G39" s="216" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H39" s="215"/>
       <c r="J39" s="98"/>
@@ -24132,7 +24104,7 @@
       <c r="D40" s="131"/>
       <c r="E40" s="100"/>
       <c r="G40" s="216" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H40" s="215"/>
       <c r="J40" s="98"/>
@@ -24141,7 +24113,7 @@
       <c r="D41" s="131"/>
       <c r="E41" s="100"/>
       <c r="G41" s="216" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H41" s="215"/>
       <c r="J41" s="98"/>
@@ -24150,7 +24122,7 @@
       <c r="D42" s="131"/>
       <c r="E42" s="100"/>
       <c r="G42" s="216" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H42" s="215"/>
       <c r="J42" s="98"/>
@@ -24159,7 +24131,7 @@
       <c r="D43" s="131"/>
       <c r="E43" s="100"/>
       <c r="G43" s="216" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H43" s="215"/>
       <c r="J43" s="98"/>
@@ -24168,7 +24140,7 @@
       <c r="D44" s="131"/>
       <c r="E44" s="100"/>
       <c r="G44" s="216" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H44" s="215"/>
       <c r="J44" s="98"/>
@@ -24177,7 +24149,7 @@
       <c r="D45" s="131"/>
       <c r="E45" s="100"/>
       <c r="G45" s="216" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H45" s="215"/>
       <c r="J45" s="98"/>
@@ -24188,7 +24160,7 @@
       <c r="D46" s="131"/>
       <c r="E46" s="100"/>
       <c r="G46" s="216" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H46" s="215"/>
       <c r="J46" s="98"/>
@@ -24199,7 +24171,7 @@
       <c r="D47" s="131"/>
       <c r="E47" s="100"/>
       <c r="G47" s="216" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H47" s="215"/>
       <c r="J47" s="98"/>
@@ -24210,7 +24182,7 @@
       <c r="D48" s="131"/>
       <c r="E48" s="100"/>
       <c r="G48" s="216" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H48" s="215"/>
       <c r="J48" s="98"/>
@@ -24241,7 +24213,7 @@
       <c r="C51" s="92"/>
       <c r="D51" s="131"/>
       <c r="F51" s="100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H51" s="61"/>
       <c r="I51" s="94"/>
@@ -24292,7 +24264,7 @@
       <c r="B58" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="276"/>
+      <c r="C58" s="262"/>
       <c r="D58" s="71"/>
       <c r="E58" s="28" t="s">
         <v>0</v>
@@ -24322,14 +24294,14 @@
     </row>
     <row r="60" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D60" s="72"/>
       <c r="E60" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H60" s="167"/>
       <c r="I60" s="25" t="s">
@@ -24339,9 +24311,9 @@
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="277"/>
+        <v>52</v>
+      </c>
+      <c r="C61" s="263"/>
       <c r="D61" s="73"/>
       <c r="E61" s="151"/>
       <c r="F61" s="167"/>
@@ -24350,17 +24322,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="D21:E23"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{551D0ABE-13F8-435A-84BF-3EC96FD09451}"/>
@@ -24398,7 +24370,7 @@
     <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" style="7" customWidth="1"/>
@@ -24453,22 +24425,22 @@
       <c r="D4" s="124"/>
       <c r="E4" s="124"/>
       <c r="F4" s="124"/>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="128"/>
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
       <c r="F5" s="124"/>
-      <c r="H5" s="284" t="s">
+      <c r="H5" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="285"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="127" t="s">
@@ -24478,39 +24450,39 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="124"/>
-      <c r="H6" s="271" t="s">
+      <c r="H6" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
       <c r="F7" s="124"/>
-      <c r="H7" s="266" t="s">
+      <c r="H7" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="288"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="124"/>
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
-      <c r="H8" s="265" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="H8" s="287" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -24519,11 +24491,11 @@
       <c r="C9" s="120"/>
       <c r="E9" s="124"/>
       <c r="F9" s="124"/>
-      <c r="H9" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
+      <c r="H9" s="287" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="125" t="s">
@@ -24540,11 +24512,11 @@
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
-      <c r="H11" s="267" t="s">
+      <c r="H11" s="286" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="267"/>
-      <c r="J11" s="267"/>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="115" t="s">
@@ -24552,28 +24524,28 @@
       </c>
       <c r="C12" s="121"/>
       <c r="D12" s="162" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="121"/>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="121"/>
       <c r="D13" s="119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="121"/>
@@ -24590,27 +24562,27 @@
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="118" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="106"/>
-      <c r="H15" s="289" t="s">
+      <c r="H15" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="290"/>
-      <c r="J15" s="291"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="283"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="162"/>
       <c r="E16" s="106"/>
       <c r="F16" s="106"/>
-      <c r="H16" s="281" t="s">
+      <c r="H16" s="267" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="282" t="s">
+      <c r="J16" s="268" t="s">
         <v>33</v>
       </c>
     </row>
@@ -24665,7 +24637,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -24682,14 +24654,14 @@
       <c r="B21" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="264" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="264"/>
+      <c r="D21" s="290" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="290"/>
       <c r="F21" s="106"/>
       <c r="G21" s="105"/>
       <c r="H21" s="104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="103">
         <v>0.84</v>
@@ -24705,7 +24677,7 @@
       <c r="F22" s="106"/>
       <c r="G22" s="105"/>
       <c r="H22" s="104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="103">
         <v>0.79</v>
@@ -24719,7 +24691,7 @@
       <c r="F23" s="106"/>
       <c r="G23" s="105"/>
       <c r="H23" s="104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="103">
         <v>0.75</v>
@@ -24733,7 +24705,7 @@
       <c r="F24" s="106"/>
       <c r="G24" s="105"/>
       <c r="H24" s="104" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I24" s="103">
         <v>0.73</v>
@@ -24817,7 +24789,7 @@
         <v>36</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H30" s="50"/>
       <c r="I30" s="99"/>
@@ -24844,7 +24816,7 @@
       <c r="B33" s="95"/>
       <c r="C33" s="92"/>
       <c r="F33" s="100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H33" s="61"/>
       <c r="I33" s="94"/>
@@ -24894,15 +24866,15 @@
       <c r="J37" s="175"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="293"/>
-      <c r="C38" s="293"/>
-      <c r="D38" s="293"/>
-      <c r="E38" s="293"/>
-      <c r="F38" s="293"/>
-      <c r="G38" s="293"/>
-      <c r="H38" s="293"/>
-      <c r="I38" s="293"/>
-      <c r="J38" s="293"/>
+      <c r="B38" s="269"/>
+      <c r="C38" s="269"/>
+      <c r="D38" s="269"/>
+      <c r="E38" s="269"/>
+      <c r="F38" s="269"/>
+      <c r="G38" s="269"/>
+      <c r="H38" s="269"/>
+      <c r="I38" s="269"/>
+      <c r="J38" s="269"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="24" t="s">
@@ -24915,7 +24887,7 @@
       <c r="B41" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="276"/>
+      <c r="C41" s="262"/>
       <c r="D41" s="71"/>
       <c r="E41" s="28" t="s">
         <v>0</v>
@@ -24940,14 +24912,14 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D43" s="72"/>
       <c r="E43" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I43" s="25" t="s">
         <v>27</v>
@@ -24956,15 +24928,15 @@
     </row>
     <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="277"/>
+        <v>52</v>
+      </c>
+      <c r="C44" s="263"/>
       <c r="D44" s="73"/>
       <c r="E44" s="151" t="s">
         <v>19</v>
       </c>
       <c r="F44" s="240" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G44" s="149"/>
       <c r="H44" s="163"/>
@@ -25070,17 +25042,17 @@
   </sheetData>
   <autoFilter ref="B26:J27" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{C27426F7-DBEA-48C1-BE04-57581DDE8711}"/>
@@ -25117,7 +25089,7 @@
     <col min="1" max="1" width="1.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="96.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="110.140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="23.7109375" style="7" customWidth="1"/>
     <col min="8" max="8" width="24.140625" style="7" bestFit="1" customWidth="1"/>
@@ -25178,11 +25150,11 @@
       <c r="D4" s="124"/>
       <c r="E4" s="124"/>
       <c r="F4" s="124"/>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="127" t="s">
@@ -25192,39 +25164,39 @@
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
       <c r="F5" s="124"/>
-      <c r="H5" s="284" t="s">
+      <c r="H5" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="285"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="124"/>
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="124"/>
-      <c r="H6" s="271" t="s">
+      <c r="H6" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
       <c r="F7" s="124"/>
-      <c r="H7" s="266" t="s">
+      <c r="H7" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="288"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -25234,11 +25206,11 @@
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
-      <c r="H8" s="265" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
+      <c r="H8" s="287" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
       <c r="O8" s="61"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -25249,11 +25221,11 @@
       <c r="D9" s="124"/>
       <c r="E9" s="124"/>
       <c r="F9" s="124"/>
-      <c r="H9" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
+      <c r="H9" s="287" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
       <c r="O9" s="61"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -25268,45 +25240,45 @@
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
-      <c r="H11" s="267" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="267"/>
-      <c r="J11" s="267"/>
+      <c r="H11" s="286" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="115" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="101" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="121"/>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C13" s="121"/>
       <c r="D13" s="101" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
       <c r="R13" s="61"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C14" s="121"/>
       <c r="D14" s="193" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="106"/>
@@ -25322,31 +25294,31 @@
       </c>
       <c r="C15" s="121"/>
       <c r="D15" s="105" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="106"/>
-      <c r="H15" s="289" t="s">
+      <c r="H15" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="290"/>
-      <c r="J15" s="291"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="283"/>
       <c r="M15" s="61"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" s="106"/>
       <c r="D16" s="192" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E16" s="106"/>
       <c r="F16" s="106"/>
-      <c r="H16" s="281" t="s">
+      <c r="H16" s="267" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="282" t="s">
+      <c r="J16" s="268" t="s">
         <v>33</v>
       </c>
       <c r="R16" s="46"/>
@@ -25412,7 +25384,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -25433,13 +25405,13 @@
         <v>19</v>
       </c>
       <c r="D21" s="113" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E21" s="106"/>
       <c r="F21" s="106"/>
       <c r="G21" s="105"/>
       <c r="H21" s="104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="103">
         <v>0.71</v>
@@ -25458,7 +25430,7 @@
       <c r="F22" s="106"/>
       <c r="G22" s="105"/>
       <c r="H22" s="104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="103">
         <v>0.61</v>
@@ -25475,7 +25447,7 @@
       <c r="F23" s="106"/>
       <c r="G23" s="105"/>
       <c r="H23" s="104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="103">
         <v>0.57999999999999996</v>
@@ -25492,7 +25464,7 @@
       <c r="F24" s="106"/>
       <c r="G24" s="105"/>
       <c r="H24" s="104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24" s="103">
         <v>0.55000000000000004</v>
@@ -25509,7 +25481,7 @@
       <c r="F25" s="106"/>
       <c r="G25" s="105"/>
       <c r="H25" s="104" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I25" s="103">
         <v>0.5</v>
@@ -25532,10 +25504,10 @@
       <c r="O26" s="64"/>
     </row>
     <row r="27" spans="2:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="272" t="s">
+      <c r="B27" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="273"/>
+      <c r="C27" s="293"/>
       <c r="D27" s="20" t="s">
         <v>35</v>
       </c>
@@ -25548,10 +25520,10 @@
       <c r="G27" s="259" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="274" t="s">
-        <v>199</v>
-      </c>
-      <c r="I27" s="274"/>
+      <c r="H27" s="294" t="s">
+        <v>197</v>
+      </c>
+      <c r="I27" s="294"/>
       <c r="J27" s="260" t="s">
         <v>5</v>
       </c>
@@ -25559,14 +25531,14 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="138" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C28" s="92"/>
       <c r="D28" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F28" s="131">
         <f>D18</f>
@@ -25677,7 +25649,7 @@
         <v>36</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H35" s="61"/>
       <c r="I35" s="94"/>
@@ -25690,7 +25662,7 @@
       <c r="C36" s="92"/>
       <c r="F36" s="60"/>
       <c r="G36" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H36" s="61"/>
       <c r="I36" s="94"/>
@@ -25703,7 +25675,7 @@
       <c r="C37" s="92"/>
       <c r="F37" s="60"/>
       <c r="G37" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H37" s="61"/>
       <c r="I37" s="94"/>
@@ -25716,7 +25688,7 @@
       <c r="C38" s="92"/>
       <c r="F38" s="60"/>
       <c r="G38" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H38" s="61"/>
       <c r="I38" s="94"/>
@@ -25730,7 +25702,7 @@
       <c r="C39" s="92"/>
       <c r="F39" s="60"/>
       <c r="G39" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H39" s="61"/>
       <c r="I39" s="94"/>
@@ -25745,7 +25717,7 @@
       <c r="C40" s="92"/>
       <c r="F40" s="60"/>
       <c r="G40" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H40" s="61"/>
       <c r="I40" s="94"/>
@@ -25784,7 +25756,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F43" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H43" s="61"/>
       <c r="J43" s="80"/>
@@ -25873,7 +25845,7 @@
       <c r="B53" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="276"/>
+      <c r="C53" s="262"/>
       <c r="D53" s="71"/>
       <c r="E53" s="28" t="s">
         <v>0</v>
@@ -25898,11 +25870,11 @@
     </row>
     <row r="55" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D55" s="72"/>
       <c r="E55" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F55" s="27" t="str">
         <f>D20</f>
@@ -25915,9 +25887,9 @@
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="277"/>
+        <v>52</v>
+      </c>
+      <c r="C56" s="263"/>
       <c r="D56" s="73"/>
       <c r="E56" s="29" t="s">
         <v>19</v>

--- a/invoice/plain_invoices/PLAIN_INVOICES.xlsx
+++ b/invoice/plain_invoices/PLAIN_INVOICES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrique Aguiar\Desktop\Canoe_Git\invoice\plain_invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0815687B-EFB9-4520-A7A1-082C2CA2C84A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA8FCC7-15CC-4014-B75B-FEBCC1318392}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A&amp;E" sheetId="2" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="258">
   <si>
     <t>Invoice Date:</t>
   </si>
@@ -722,9 +722,6 @@
     <t>Bravo</t>
   </si>
   <si>
-    <t>Bravo, E!, NBC Universo, NBC, Oxygen, Universal Kids, Style, Syfy, Telemundo, USA, Esquire, CNBC, Pre Olympics, Olympics, MSNBC, Golf Channel, Chiller, NBC News</t>
-  </si>
-  <si>
     <t>NBCU</t>
   </si>
   <si>
@@ -1023,6 +1020,9 @@
   </si>
   <si>
     <t>Motortrend</t>
+  </si>
+  <si>
+    <t>Bravo, E!, NBC Universo, NBC, Oxygen, Universal Kids, Syfy, Telemundo, USA, CNBC, Pre Olympics, Olympics, MSNBC, Golf Channel, NBC News</t>
   </si>
 </sst>
 </file>
@@ -5640,10 +5640,6 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5652,6 +5648,10 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2813">
@@ -8753,14 +8753,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10281,7 +10281,7 @@
         <v>36</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H31" s="61"/>
       <c r="I31" s="39"/>
@@ -10310,7 +10310,7 @@
       <c r="E33" s="38"/>
       <c r="F33" s="17"/>
       <c r="G33" s="268" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H33" s="61"/>
       <c r="I33" s="39"/>
@@ -10324,7 +10324,7 @@
       <c r="E34" s="38"/>
       <c r="F34" s="61"/>
       <c r="G34" s="268" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H34" s="61"/>
       <c r="I34" s="39"/>
@@ -10465,7 +10465,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J45" s="57"/>
       <c r="K45" s="61"/>
@@ -10482,7 +10482,7 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="I47" s="268" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J47" s="62"/>
       <c r="K47" s="61"/>
@@ -10491,7 +10491,7 @@
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="24"/>
       <c r="I48" s="268" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J48" s="62"/>
       <c r="K48" s="61"/>
@@ -11626,17 +11626,17 @@
   </sheetData>
   <autoFilter ref="B26:J27" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H4:J4"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{423E9719-A0E5-4632-BFC5-DBDE87BAE0E4}"/>
@@ -12122,7 +12122,7 @@
       <c r="E32" s="130"/>
       <c r="F32" s="99"/>
       <c r="G32" s="214" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H32" s="50">
         <f>SUMIF($E$27:$E$27,$G32,$J$27:$J$28)</f>
@@ -12304,17 +12304,17 @@
   </sheetData>
   <autoFilter ref="B26:J27" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H4:J4"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{F74B364E-86F6-429D-BD98-C748943E8F9F}"/>
@@ -13029,8 +13029,8 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -13038,7 +13038,7 @@
     <col min="1" max="1" width="1.44140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="118.109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="122.33203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="22.5546875" style="7" customWidth="1"/>
     <col min="8" max="8" width="22.6640625" style="7" customWidth="1"/>
@@ -13188,7 +13188,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E12" s="120"/>
       <c r="F12" s="120"/>
@@ -13201,7 +13201,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13" s="120"/>
       <c r="D13" s="100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" s="120"/>
       <c r="F13" s="120"/>
@@ -13214,7 +13214,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" s="120"/>
       <c r="D14" s="104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E14" s="105"/>
       <c r="F14" s="105"/>
@@ -13228,7 +13228,7 @@
       </c>
       <c r="C15" s="120"/>
       <c r="D15" s="104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E15" s="105"/>
       <c r="F15" s="105"/>
@@ -13241,7 +13241,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" s="105"/>
       <c r="D16" s="76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E16" s="105"/>
       <c r="G16" s="105"/>
@@ -13305,7 +13305,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E20" s="105"/>
       <c r="F20" s="105"/>
@@ -13322,8 +13322,8 @@
       <c r="B21" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="296" t="s">
-        <v>157</v>
+      <c r="D21" s="299" t="s">
+        <v>257</v>
       </c>
       <c r="E21" s="238"/>
       <c r="F21" s="238"/>
@@ -13337,7 +13337,10 @@
       <c r="J21" s="109"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D22" s="296"/>
+      <c r="B22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="46"/>
       <c r="E22" s="253"/>
       <c r="F22" s="253"/>
       <c r="G22" s="104"/>
@@ -13352,10 +13355,6 @@
       <c r="L22" s="204"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="46"/>
       <c r="E23" s="105"/>
       <c r="F23" s="105"/>
       <c r="G23" s="104"/>
@@ -13788,18 +13787,17 @@
     </row>
   </sheetData>
   <autoFilter ref="B27:J28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H11:J11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{352B6C58-14F3-400C-8C56-43D69DB486FC}"/>
@@ -13987,7 +13985,7 @@
       </c>
       <c r="C12" s="120"/>
       <c r="D12" s="161" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E12" s="120"/>
       <c r="F12" s="120"/>
@@ -14000,7 +13998,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13" s="120"/>
       <c r="D13" s="118" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E13" s="120"/>
       <c r="F13" s="120"/>
@@ -14013,7 +14011,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" s="120"/>
       <c r="D14" s="117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E14" s="105"/>
       <c r="F14" s="105"/>
@@ -14027,7 +14025,7 @@
       </c>
       <c r="C15" s="105"/>
       <c r="D15" s="117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E15" s="105"/>
       <c r="F15" s="105"/>
@@ -14102,7 +14100,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E20" s="105"/>
       <c r="F20" s="105"/>
@@ -14120,7 +14118,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="291" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E21" s="291"/>
       <c r="F21" s="105"/>
@@ -14255,7 +14253,7 @@
         <v>36</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H30" s="50">
         <f>SUMIF($E$27:$E$27,$G30,$J$27:$J$28)</f>
@@ -14270,7 +14268,7 @@
       <c r="E31" s="65"/>
       <c r="F31" s="99"/>
       <c r="G31" s="214" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H31" s="50">
         <f>SUMIF($E$27:$E$27,$G31,$J$27:$J$28)</f>
@@ -14414,7 +14412,7 @@
         <v>57</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I44" s="25" t="s">
         <v>27</v>
@@ -14434,7 +14432,7 @@
         <v>19</v>
       </c>
       <c r="F45" s="238" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G45" s="238"/>
       <c r="H45" s="148"/>
@@ -14543,17 +14541,17 @@
   </sheetData>
   <autoFilter ref="B26:J27" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H11:J11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{605FE35A-7100-4C8A-9003-D457AC1EA76A}"/>
@@ -14742,7 +14740,7 @@
       </c>
       <c r="C12" s="120"/>
       <c r="D12" s="118" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E12" s="120"/>
       <c r="F12" s="13"/>
@@ -14755,7 +14753,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13" s="120"/>
       <c r="D13" s="121" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E13" s="120"/>
       <c r="F13" s="13"/>
@@ -14768,7 +14766,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" s="120"/>
       <c r="D14" s="117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E14" s="105"/>
       <c r="F14" s="246"/>
@@ -14853,7 +14851,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E20" s="105"/>
       <c r="F20" s="246"/>
@@ -14870,7 +14868,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="291" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E21" s="291"/>
       <c r="F21" s="246"/>
@@ -15013,7 +15011,7 @@
         <v>36</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H31" s="50">
         <f>SUMIF(E28:E28,G31,H28:H28)</f>
@@ -15030,7 +15028,7 @@
       <c r="C32" s="91"/>
       <c r="F32" s="99"/>
       <c r="G32" s="214" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H32" s="50">
         <f>SUMIF(E28:E28,G32,H28:H28)</f>
@@ -15300,17 +15298,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H11:J11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{3C868628-3C5E-4072-BECC-2196E0B2F9D1}"/>
@@ -15501,7 +15499,7 @@
       </c>
       <c r="C12" s="120"/>
       <c r="D12" s="161" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E12" s="120"/>
       <c r="F12" s="120"/>
@@ -15514,7 +15512,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13" s="120"/>
       <c r="D13" s="118" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E13" s="120"/>
       <c r="F13" s="120"/>
@@ -15539,7 +15537,7 @@
       </c>
       <c r="C15" s="105"/>
       <c r="D15" s="193" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E15" s="105"/>
       <c r="F15" s="105"/>
@@ -15614,7 +15612,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="112" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E20" s="105"/>
       <c r="F20" s="105"/>
@@ -15632,7 +15630,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="291" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21" s="291"/>
       <c r="F21" s="105"/>
@@ -15768,7 +15766,7 @@
         <v>36</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H30" s="50"/>
       <c r="I30" s="98"/>
@@ -15780,7 +15778,7 @@
       <c r="E31" s="65"/>
       <c r="F31" s="99"/>
       <c r="G31" s="65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H31" s="50"/>
       <c r="I31" s="98"/>
@@ -15792,7 +15790,7 @@
       <c r="E32" s="65"/>
       <c r="F32" s="99"/>
       <c r="G32" s="65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H32" s="50"/>
       <c r="I32" s="98"/>
@@ -16031,17 +16029,17 @@
   </sheetData>
   <autoFilter ref="B26:J27" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{0E335288-202B-4A2D-9E56-A72B6AE44135}"/>
@@ -16231,7 +16229,7 @@
       </c>
       <c r="C12" s="120"/>
       <c r="D12" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E12" s="120"/>
       <c r="F12" s="242"/>
@@ -16244,7 +16242,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13" s="120"/>
       <c r="D13" s="118" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E13" s="120"/>
       <c r="F13" s="244"/>
@@ -16269,7 +16267,7 @@
       </c>
       <c r="C15" s="105"/>
       <c r="D15" s="193" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E15" s="105"/>
       <c r="F15" s="241"/>
@@ -16344,7 +16342,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="112" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E20" s="105"/>
       <c r="F20" s="41"/>
@@ -16362,7 +16360,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="291" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E21" s="291"/>
       <c r="F21" s="41"/>
@@ -16509,7 +16507,7 @@
         <v>36</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H31" s="50">
         <f t="shared" ref="H31:H37" si="0">SUMIF($E$28:$E$28,$G31,$H$28:$H$29)</f>
@@ -16526,7 +16524,7 @@
       <c r="C32" s="91"/>
       <c r="F32" s="99"/>
       <c r="G32" s="65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H32" s="50">
         <f t="shared" si="0"/>
@@ -16543,7 +16541,7 @@
       <c r="C33" s="91"/>
       <c r="F33" s="99"/>
       <c r="G33" s="65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H33" s="50">
         <f t="shared" si="0"/>
@@ -16560,7 +16558,7 @@
       <c r="C34" s="91"/>
       <c r="F34" s="99"/>
       <c r="G34" s="65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H34" s="50">
         <f t="shared" si="0"/>
@@ -16577,7 +16575,7 @@
       <c r="C35" s="91"/>
       <c r="F35" s="99"/>
       <c r="G35" s="65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H35" s="50">
         <f t="shared" si="0"/>
@@ -16594,7 +16592,7 @@
       <c r="C36" s="91"/>
       <c r="F36" s="99"/>
       <c r="G36" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H36" s="50">
         <f t="shared" si="0"/>
@@ -16611,7 +16609,7 @@
       <c r="C37" s="91"/>
       <c r="F37" s="99"/>
       <c r="G37" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H37" s="50">
         <f t="shared" si="0"/>
@@ -16850,17 +16848,17 @@
   </sheetData>
   <autoFilter ref="B27:J28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H11:J11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{E695E26E-8B66-4994-A983-693A851799B3}"/>
@@ -17054,7 +17052,7 @@
       </c>
       <c r="C12" s="120"/>
       <c r="D12" s="215" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E12" s="120"/>
       <c r="F12" s="242"/>
@@ -17067,7 +17065,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C13" s="120"/>
       <c r="D13" s="215" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E13" s="120"/>
       <c r="F13" s="244"/>
@@ -17080,7 +17078,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14" s="120"/>
       <c r="D14" s="215" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E14" s="105"/>
       <c r="F14" s="246"/>
@@ -17094,15 +17092,15 @@
       </c>
       <c r="C15" s="105"/>
       <c r="D15" s="215" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" s="105"/>
       <c r="F15" s="249"/>
-      <c r="H15" s="297" t="s">
+      <c r="H15" s="296" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="298"/>
-      <c r="J15" s="299"/>
+      <c r="I15" s="297"/>
+      <c r="J15" s="298"/>
       <c r="K15" s="63"/>
       <c r="L15" s="63"/>
       <c r="M15" s="46"/>
@@ -17182,7 +17180,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="112" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E20" s="105"/>
       <c r="F20" s="41"/>
@@ -17202,7 +17200,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="291" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E21" s="291"/>
       <c r="F21" s="41"/>
@@ -17310,7 +17308,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="295" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I27" s="295"/>
       <c r="J27" s="258" t="s">
@@ -17324,7 +17322,7 @@
       </c>
       <c r="C28" s="91"/>
       <c r="E28" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F28" s="130">
         <f t="shared" ref="F28:F37" si="0">$D$18</f>
@@ -17351,7 +17349,7 @@
       </c>
       <c r="C29" s="91"/>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F29" s="130">
         <f t="shared" si="0"/>
@@ -17377,7 +17375,7 @@
       </c>
       <c r="C30" s="91"/>
       <c r="E30" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F30" s="130">
         <f t="shared" si="0"/>
@@ -17404,7 +17402,7 @@
       </c>
       <c r="C31" s="91"/>
       <c r="E31" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F31" s="130">
         <f t="shared" si="0"/>
@@ -17430,7 +17428,7 @@
       </c>
       <c r="C32" s="91"/>
       <c r="E32" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F32" s="130">
         <f t="shared" si="0"/>
@@ -17456,7 +17454,7 @@
       </c>
       <c r="C33" s="91"/>
       <c r="E33" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F33" s="130">
         <f t="shared" si="0"/>
@@ -17482,7 +17480,7 @@
       </c>
       <c r="C34" s="91"/>
       <c r="E34" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F34" s="130">
         <f t="shared" si="0"/>
@@ -17508,7 +17506,7 @@
       </c>
       <c r="C35" s="91"/>
       <c r="E35" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F35" s="130">
         <f t="shared" si="0"/>
@@ -17534,7 +17532,7 @@
       </c>
       <c r="C36" s="91"/>
       <c r="E36" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F36" s="130">
         <f t="shared" si="0"/>
@@ -17560,7 +17558,7 @@
       </c>
       <c r="C37" s="91"/>
       <c r="E37" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F37" s="130">
         <f t="shared" si="0"/>
@@ -17595,7 +17593,7 @@
       <c r="G39" s="130"/>
       <c r="H39" s="97"/>
       <c r="I39" s="212" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J39" s="211">
         <f>SUM(J28:J37)</f>
@@ -17677,7 +17675,7 @@
         <v>36</v>
       </c>
       <c r="G45" s="65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H45" s="50">
         <f t="shared" ref="H45:H54" si="4">SUMIF($E$42:$E$42,$G45,$H$42:$H$43)</f>
@@ -17696,7 +17694,7 @@
       <c r="E46" s="130"/>
       <c r="F46" s="99"/>
       <c r="G46" s="65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H46" s="50">
         <f t="shared" si="4"/>
@@ -17715,7 +17713,7 @@
       <c r="E47" s="130"/>
       <c r="F47" s="99"/>
       <c r="G47" s="65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H47" s="50">
         <f t="shared" si="4"/>
@@ -17734,7 +17732,7 @@
       <c r="E48" s="130"/>
       <c r="F48" s="99"/>
       <c r="G48" s="65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H48" s="50">
         <f t="shared" si="4"/>
@@ -17753,7 +17751,7 @@
       <c r="E49" s="130"/>
       <c r="F49" s="99"/>
       <c r="G49" s="65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H49" s="50">
         <f t="shared" si="4"/>
@@ -17772,7 +17770,7 @@
       <c r="E50" s="130"/>
       <c r="F50" s="99"/>
       <c r="G50" s="65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H50" s="50">
         <f t="shared" si="4"/>
@@ -17790,7 +17788,7 @@
       <c r="E51" s="130"/>
       <c r="F51" s="99"/>
       <c r="G51" s="65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H51" s="50">
         <f t="shared" si="4"/>
@@ -17808,7 +17806,7 @@
       <c r="E52" s="130"/>
       <c r="F52" s="99"/>
       <c r="G52" s="65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H52" s="50">
         <f t="shared" si="4"/>
@@ -17826,7 +17824,7 @@
       <c r="E53" s="130"/>
       <c r="F53" s="99"/>
       <c r="G53" s="65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H53" s="50">
         <f t="shared" si="4"/>
@@ -17844,7 +17842,7 @@
       <c r="E54" s="130"/>
       <c r="F54" s="99"/>
       <c r="G54" s="65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H54" s="50">
         <f t="shared" si="4"/>
@@ -17903,7 +17901,7 @@
       </c>
       <c r="C59" s="66"/>
       <c r="D59" s="208" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E59" s="66"/>
       <c r="F59" s="66"/>
@@ -17976,7 +17974,7 @@
         <v>57</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I67" s="25" t="s">
         <v>27</v>
@@ -18015,6 +18013,11 @@
   </sheetData>
   <autoFilter ref="B41:J42" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="13">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H7:J7"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="H13:J13"/>
@@ -18023,11 +18026,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{752B15DD-8E09-44EA-8D2E-880CB2CA25F9}"/>
@@ -18234,7 +18232,7 @@
       </c>
       <c r="C12" s="120"/>
       <c r="D12" s="161" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E12" s="120"/>
       <c r="F12" s="120"/>
@@ -18248,7 +18246,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="120"/>
       <c r="D13" s="118" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E13" s="120"/>
       <c r="F13" s="120"/>
@@ -18275,15 +18273,15 @@
       </c>
       <c r="C15" s="105"/>
       <c r="D15" s="117" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E15" s="105"/>
       <c r="F15" s="105"/>
-      <c r="H15" s="297" t="s">
+      <c r="H15" s="296" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="298"/>
-      <c r="J15" s="299"/>
+      <c r="I15" s="297"/>
+      <c r="J15" s="298"/>
       <c r="K15" s="241"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -18355,7 +18353,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E20" s="105"/>
       <c r="F20" s="105"/>
@@ -18374,7 +18372,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="291" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E21" s="291"/>
       <c r="F21" s="105"/>
@@ -18517,7 +18515,7 @@
         <v>36</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H30" s="50">
         <f>SUMIF($E$27:$E$27,$G30,$J$27:$J$28)</f>
@@ -18535,7 +18533,7 @@
       <c r="E31" s="65"/>
       <c r="F31" s="99"/>
       <c r="G31" s="214" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H31" s="50">
         <f>SUMIF($E$27:$E$27,$G31,$J$27:$J$28)</f>
@@ -18543,7 +18541,7 @@
       </c>
       <c r="I31" s="98"/>
       <c r="J31" s="97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -18650,7 +18648,7 @@
         <v>57</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I41" s="25" t="s">
         <v>27</v>
@@ -18670,7 +18668,7 @@
         <v>19</v>
       </c>
       <c r="F42" s="238" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G42" s="238"/>
       <c r="H42" s="148"/>
@@ -18778,17 +18776,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H4:J4"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{E37166C1-92E9-404D-AA21-1E50DAE681D3}"/>
@@ -18816,7 +18814,7 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
@@ -19018,7 +19016,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14" s="120"/>
       <c r="D14" s="118" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E14" s="118"/>
       <c r="F14" s="118"/>
@@ -19151,7 +19149,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="112" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E21" s="112"/>
       <c r="F21" s="112"/>
@@ -19419,7 +19417,7 @@
       <c r="E39" s="91"/>
       <c r="F39" s="61"/>
       <c r="G39" s="214" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H39" s="213"/>
       <c r="I39" s="98"/>
@@ -19609,7 +19607,7 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I58" s="214" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J58" s="62">
         <f t="shared" si="0"/>
@@ -19888,7 +19886,7 @@
       </c>
       <c r="C12" s="120"/>
       <c r="D12" s="118" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E12" s="120"/>
       <c r="H12" s="287" t="s">
@@ -19901,7 +19899,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C13" s="120"/>
       <c r="D13" s="118" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E13" s="120"/>
       <c r="H13" s="286" t="s">
@@ -19927,18 +19925,18 @@
       </c>
       <c r="C15" s="105"/>
       <c r="D15" s="118" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" s="105"/>
-      <c r="H15" s="298" t="s">
+      <c r="H15" s="297" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="298"/>
-      <c r="J15" s="298"/>
+      <c r="I15" s="297"/>
+      <c r="J15" s="297"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D16" s="76" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F16" s="105"/>
       <c r="H16" s="265" t="s">
@@ -20006,7 +20004,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="112" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E20" s="105"/>
       <c r="F20" s="231"/>
@@ -20026,7 +20024,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="291" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E21" s="291"/>
       <c r="F21" s="231"/>
@@ -20195,7 +20193,7 @@
         <v>36</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H31" s="50">
         <f t="shared" ref="H31:H45" si="0">SUMIF($E$28:$E$29,$G31,$I$28:$I$29)</f>
@@ -20212,7 +20210,7 @@
       <c r="C32" s="91"/>
       <c r="F32" s="99"/>
       <c r="G32" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H32" s="50">
         <f t="shared" si="0"/>
@@ -20229,7 +20227,7 @@
       <c r="C33" s="91"/>
       <c r="F33" s="99"/>
       <c r="G33" s="65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H33" s="50">
         <f t="shared" si="0"/>
@@ -20246,7 +20244,7 @@
       <c r="C34" s="91"/>
       <c r="F34" s="99"/>
       <c r="G34" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H34" s="50">
         <f t="shared" si="0"/>
@@ -20263,7 +20261,7 @@
       <c r="C35" s="91"/>
       <c r="F35" s="99"/>
       <c r="G35" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H35" s="50">
         <f t="shared" si="0"/>
@@ -20280,7 +20278,7 @@
       <c r="C36" s="91"/>
       <c r="F36" s="99"/>
       <c r="G36" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H36" s="50">
         <f t="shared" si="0"/>
@@ -20297,7 +20295,7 @@
       <c r="C37" s="91"/>
       <c r="F37" s="99"/>
       <c r="G37" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H37" s="50">
         <f t="shared" si="0"/>
@@ -20314,7 +20312,7 @@
       <c r="C38" s="91"/>
       <c r="F38" s="99"/>
       <c r="G38" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H38" s="50">
         <f t="shared" si="0"/>
@@ -20331,7 +20329,7 @@
       <c r="C39" s="91"/>
       <c r="F39" s="99"/>
       <c r="G39" s="65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H39" s="50">
         <f t="shared" si="0"/>
@@ -20348,7 +20346,7 @@
       <c r="C40" s="91"/>
       <c r="F40" s="99"/>
       <c r="G40" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H40" s="50">
         <f t="shared" si="0"/>
@@ -20365,7 +20363,7 @@
       <c r="C41" s="91"/>
       <c r="F41" s="99"/>
       <c r="G41" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H41" s="50">
         <f t="shared" si="0"/>
@@ -20382,7 +20380,7 @@
       <c r="C42" s="91"/>
       <c r="F42" s="99"/>
       <c r="G42" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H42" s="50">
         <f t="shared" si="0"/>
@@ -20399,7 +20397,7 @@
       <c r="C43" s="91"/>
       <c r="F43" s="99"/>
       <c r="G43" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H43" s="50">
         <f t="shared" si="0"/>
@@ -20416,7 +20414,7 @@
       <c r="C44" s="91"/>
       <c r="F44" s="99"/>
       <c r="G44" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H44" s="50">
         <f t="shared" si="0"/>
@@ -20433,7 +20431,7 @@
       <c r="C45" s="91"/>
       <c r="F45" s="99"/>
       <c r="G45" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H45" s="50">
         <f t="shared" si="0"/>
@@ -20587,7 +20585,7 @@
         <v>57</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I60" s="25" t="s">
         <v>27</v>
@@ -20629,17 +20627,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H9:J9"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{111A9610-5FCF-4A87-9235-68F71288FEAC}"/>
@@ -21277,7 +21275,7 @@
       <c r="C38" s="91"/>
       <c r="F38" s="99"/>
       <c r="G38" s="214" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H38" s="132"/>
       <c r="I38" s="98"/>
@@ -22806,7 +22804,7 @@
       <c r="E32" s="65"/>
       <c r="F32" s="99"/>
       <c r="G32" s="214" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H32" s="50"/>
       <c r="I32" s="98"/>
@@ -22977,17 +22975,17 @@
   </sheetData>
   <autoFilter ref="B27:J28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H4:J4"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{932E3038-D5FE-4469-A77C-2D7A36D53B2C}"/>
@@ -23702,17 +23700,17 @@
   </sheetData>
   <autoFilter ref="B27:J28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H11:J11"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H11:J11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{9E8F8B6C-60B0-4E80-A427-65D8B1A90CA2}"/>
@@ -23949,7 +23947,7 @@
       </c>
       <c r="C15" s="105"/>
       <c r="D15" s="118" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E15" s="105"/>
       <c r="F15" s="105"/>
@@ -24169,7 +24167,7 @@
         <v>36</v>
       </c>
       <c r="G31" s="214" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H31" s="213"/>
       <c r="J31" s="97"/>
@@ -24178,7 +24176,7 @@
       <c r="D32" s="130"/>
       <c r="E32" s="99"/>
       <c r="G32" s="214" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H32" s="213"/>
       <c r="J32" s="97"/>
@@ -24187,7 +24185,7 @@
       <c r="D33" s="130"/>
       <c r="E33" s="99"/>
       <c r="G33" s="214" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H33" s="213"/>
       <c r="J33" s="97"/>
@@ -24196,7 +24194,7 @@
       <c r="D34" s="130"/>
       <c r="E34" s="99"/>
       <c r="G34" s="214" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H34" s="213"/>
       <c r="J34" s="97"/>
@@ -24205,7 +24203,7 @@
       <c r="D35" s="130"/>
       <c r="E35" s="99"/>
       <c r="G35" s="214" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H35" s="213"/>
       <c r="J35" s="97"/>
@@ -24214,7 +24212,7 @@
       <c r="D36" s="130"/>
       <c r="E36" s="99"/>
       <c r="G36" s="214" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H36" s="213"/>
       <c r="J36" s="97"/>
@@ -24223,7 +24221,7 @@
       <c r="D37" s="130"/>
       <c r="E37" s="99"/>
       <c r="G37" s="214" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H37" s="213"/>
       <c r="J37" s="97"/>
@@ -24232,7 +24230,7 @@
       <c r="D38" s="130"/>
       <c r="E38" s="99"/>
       <c r="G38" s="214" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H38" s="213"/>
       <c r="J38" s="97"/>
@@ -24241,7 +24239,7 @@
       <c r="D39" s="130"/>
       <c r="E39" s="99"/>
       <c r="G39" s="214" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H39" s="213"/>
       <c r="J39" s="97"/>
@@ -24250,7 +24248,7 @@
       <c r="D40" s="130"/>
       <c r="E40" s="99"/>
       <c r="G40" s="214" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H40" s="213"/>
       <c r="J40" s="97"/>
@@ -24259,7 +24257,7 @@
       <c r="D41" s="130"/>
       <c r="E41" s="99"/>
       <c r="G41" s="214" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H41" s="213"/>
       <c r="J41" s="97"/>
@@ -24268,7 +24266,7 @@
       <c r="D42" s="130"/>
       <c r="E42" s="99"/>
       <c r="G42" s="214" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H42" s="213"/>
       <c r="J42" s="97"/>
@@ -24277,7 +24275,7 @@
       <c r="D43" s="130"/>
       <c r="E43" s="99"/>
       <c r="G43" s="214" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H43" s="213"/>
       <c r="J43" s="97"/>
@@ -24286,7 +24284,7 @@
       <c r="D44" s="130"/>
       <c r="E44" s="99"/>
       <c r="G44" s="214" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H44" s="213"/>
       <c r="J44" s="97"/>
@@ -24295,7 +24293,7 @@
       <c r="D45" s="130"/>
       <c r="E45" s="99"/>
       <c r="G45" s="214" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H45" s="213"/>
       <c r="J45" s="97"/>
@@ -24304,7 +24302,7 @@
       <c r="D46" s="130"/>
       <c r="E46" s="99"/>
       <c r="G46" s="214" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H46" s="213"/>
       <c r="J46" s="97"/>
@@ -24477,17 +24475,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D21:E23"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H11:J11"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H5:J5"/>
+    <mergeCell ref="D21:E23"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H11:J11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{551D0ABE-13F8-435A-84BF-3EC96FD09451}"/>
@@ -25197,17 +25195,17 @@
   </sheetData>
   <autoFilter ref="B26:J27" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{C27426F7-DBEA-48C1-BE04-57581DDE8711}"/>
@@ -25419,7 +25417,7 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C13" s="120"/>
       <c r="D13" s="100" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E13" s="120"/>
       <c r="F13" s="120"/>
@@ -25463,7 +25461,7 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C16" s="105"/>
       <c r="D16" s="270" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E16" s="105"/>
       <c r="F16" s="105"/>
@@ -25560,7 +25558,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="112" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E21" s="105"/>
       <c r="F21" s="105"/>
@@ -25676,7 +25674,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="295" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I27" s="295"/>
       <c r="J27" s="258" t="s">
